--- a/doc/model.xlsx
+++ b/doc/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\qt514\ItshfSim\ItshfSim\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\qt652\AutoTechSim\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437B90-5FCD-4612-848D-C68ABF4717A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCAA89-D023-42FF-9D2C-4993A831DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
   </bookViews>
   <sheets>
     <sheet name="snr" sheetId="1" r:id="rId1"/>
@@ -50,41 +50,6 @@
   <si>
     <t>snr</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>snr0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>snr10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>snr20</t>
-  </si>
-  <si>
-    <t>snr30</t>
-  </si>
-  <si>
-    <t>snr40</t>
-  </si>
-  <si>
-    <t>snr50</t>
-  </si>
-  <si>
-    <t>snr60</t>
-  </si>
-  <si>
-    <t>snr70</t>
-  </si>
-  <si>
-    <t>snr80</t>
-  </si>
-  <si>
-    <t>snr90</t>
-  </si>
-  <si>
-    <t>snr100</t>
   </si>
   <si>
     <t>基线</t>
@@ -185,6 +150,41 @@
     <t>c1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>SNR10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR20</t>
+  </si>
+  <si>
+    <t>SNR30</t>
+  </si>
+  <si>
+    <t>SNR40</t>
+  </si>
+  <si>
+    <t>SNR50</t>
+  </si>
+  <si>
+    <t>SNR60</t>
+  </si>
+  <si>
+    <t>SNR70</t>
+  </si>
+  <si>
+    <t>SNR80</t>
+  </si>
+  <si>
+    <t>SNR90</t>
+  </si>
+  <si>
+    <t>SNR100</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,17 +305,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -344,6 +341,2655 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.82408213638582517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87242535944970956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91065954025343121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93963587773458823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96067902179023035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97532279893190021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98508776721993241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9913274669932044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99514806685538493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99738975030897581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9986501019683699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99932912381997197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99967967396815549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99985309060913496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99993529696617822</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99997263864608088</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99998889248319622</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999567188436467</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99999838145146325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999941917433455</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9999998000081608</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99999993393327635</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999997906279048</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99999999363519165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75803634777692697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81593987465324047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86433393905361733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9031995154143897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95543453724145699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97128344018399815</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98213557943718344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98927588997832416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99379033467422384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99653302619695938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99813418669961596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99903239678678168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99951657585761622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99976737092096446</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99989220026652259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99995190365598241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99997934249308751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999146009452899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999660232687526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99999869919254614</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999952081672339</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99999983017325933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.53793714406625415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61245151890200766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68303065805932717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74750746245307709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80431703084622408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85259292096847283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89215962531949267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9234362744901653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94728149110993731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96481516769510434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97724986805182079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98575514014463217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9913660280019122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99493600472530463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99712673808801811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99842333182367049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99916346263892386</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99957093966680322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99978730503543289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99989811077021928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99995284090093262</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9999789132627197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99999089235142546</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99999620066510508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.39561802281840308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46484483302599483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53515516697400511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60438197718159692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67045737702887753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7315959915094894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78643652745266823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83412331661203198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8743213448374858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90717030901044104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95317697372217169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96805460481357486</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97879181608938604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9863038809320358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99139879935477115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99474864793804407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99688377197338696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99820303376311326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9989932550942382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99945211102464704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99971040467305106</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99985135329064412</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9999259152937312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$J$2:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.29512922565738597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35026119705192432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40874704318169031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46934236960338749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53065763039661251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59125295681830969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64973880294807573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70487077434261403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75562793980674647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80126653728870356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84134474606854304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87571837589140888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90451115326607134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92806613575919239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94688628510999795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96157231432404044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97276480498626128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98109567026480926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98715179045637358</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99145150722389519</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99443294797713511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99645202772823449</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99778745948483483</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9986501019683699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$K$2:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.27056301223583412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3486791709387379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39059147543357498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43381616738909634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47784793565821782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52215206434178218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56618383261090366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60940852456642502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6513208290612621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72943698776416588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76492106857116515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79767161903635697</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82752871058569177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85441434237734604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87832749542561872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89933610400849928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9175667301260455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94642224648386375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95748536460956002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96662349241518275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97407906064215699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$L$2:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.20232838096364303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23507893142883482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27056301223583412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3486791709387379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39059147543357498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43381616738909634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47784793565821782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52215206434178218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56618383261090366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60940852456642502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6513208290612621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72943698776416588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76492106857116515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79767161903635697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82752871058569177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85441434237734604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87832749542561872</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89933610400849928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9175667301260455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94642224648386375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95748536460956002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6637-4ED4-BA5B-D5387057F1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$M$2:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.14558565762265402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17247128941430825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20232838096364303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23507893142883482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27056301223583412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3486791709387379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39059147543357498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43381616738909634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47784793565821782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52215206434178218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56618383261090366</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60940852456642502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6513208290612621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72943698776416588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76492106857116515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79767161903635697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82752871058569177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85441434237734604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87832749542561872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89933610400849928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9175667301260455</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6637-4ED4-BA5B-D5387057F1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$N$2:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.8427685675959514E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3113714890002023E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1933864240807568E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5488846733928684E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12428162410859106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15865525393145699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19873346271129638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24437206019325353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29512922565738597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35026119705192432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40874704318169031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46934236960338749</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53065763039661251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59125295681830969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64973880294807573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70487077434261403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75562793980674647</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80126653728870356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84134474606854304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87571837589140888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90451115326607134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92806613575919239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94688628510999795</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96157231432404044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6637-4ED4-BA5B-D5387057F1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$O$2:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.6012006452288944E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.369611906796424E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1208183910613989E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1945395186425141E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6823026277828306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2829690989559011E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12567865516251422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16587668338796804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21356347254733174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2684040084905106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32954262297112247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39561802281840308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46484483302599483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53515516697400511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60438197718159692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67045737702887753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7315959915094894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78643652745266823</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83412331661203198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8743213448374858</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90717030901044104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95317697372217169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>snr!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6637-4ED4-BA5B-D5387057F1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>snr!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>snr!$P$2:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.5766681763295554E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8732619119818813E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0639952746953255E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6339719980878023E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4244859855367865E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5184832304895615E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2718508890062694E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6563725509834743E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10784037468050735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14740707903152717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19568296915377595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25249253754692291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31696934194067283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38754848109799234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46206285593374585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53793714406625415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61245151890200766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68303065805932717</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74750746245307709</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80431703084622408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85259292096847283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89215962531949267</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9234362744901653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E4A0-494B-A0BF-CE2B5B90C8D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="703479872"/>
+        <c:axId val="703478072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="703479872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703478072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703478072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703479872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2226,6 +4872,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2768,7 +5454,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BD116B-585A-41A0-A05F-37E8FB7CF223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3106,11 +6338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78851A5-F45D-4E7E-A098-4969DEC3D558}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3120,11 +6352,13 @@
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3138,40 +6372,40 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3206,7 +6440,7 @@
         <f>_xlfn.NORM.DIST($E2, $B$6, $C$6, 1)</f>
         <v>0.29512922565738597</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f>_xlfn.NORM.DIST($E2, $B$7, $C$7, 1)</f>
         <v>0.27056301223583412</v>
       </c>
@@ -3231,7 +6465,7 @@
         <v>1.5766681763295554E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3266,7 +6500,7 @@
         <f t="shared" ref="J3:J25" si="6">_xlfn.NORM.DIST($E3, $B$6, $C$6, 1)</f>
         <v>0.35026119705192432</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K25" si="7">_xlfn.NORM.DIST($E3, $B$7, $C$7, 1)</f>
         <v>0.30853753872598688</v>
       </c>
@@ -3291,7 +6525,7 @@
         <v>2.8732619119818813E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -3326,7 +6560,7 @@
         <f t="shared" si="6"/>
         <v>0.40874704318169031</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" si="7"/>
         <v>0.3486791709387379</v>
       </c>
@@ -3351,7 +6585,7 @@
         <v>5.0639952746953255E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -3386,7 +6620,7 @@
         <f t="shared" si="6"/>
         <v>0.46934236960338749</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" si="7"/>
         <v>0.39059147543357498</v>
       </c>
@@ -3411,7 +6645,7 @@
         <v>8.6339719980878023E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -3446,7 +6680,7 @@
         <f t="shared" si="6"/>
         <v>0.53065763039661251</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="7"/>
         <v>0.43381616738909634</v>
       </c>
@@ -3470,17 +6704,8 @@
         <f t="shared" si="12"/>
         <v>1.4244859855367865E-2</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -3515,7 +6740,7 @@
         <f t="shared" si="6"/>
         <v>0.59125295681830969</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="7"/>
         <v>0.47784793565821782</v>
       </c>
@@ -3539,15 +6764,8 @@
         <f t="shared" si="12"/>
         <v>2.2750131948179191E-2</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -3582,7 +6800,7 @@
         <f t="shared" si="6"/>
         <v>0.64973880294807573</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="7"/>
         <v>0.52215206434178218</v>
       </c>
@@ -3606,15 +6824,8 @@
         <f t="shared" si="12"/>
         <v>3.5184832304895615E-2</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -3649,7 +6860,7 @@
         <f t="shared" si="6"/>
         <v>0.70487077434261403</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="7"/>
         <v>0.56618383261090366</v>
       </c>
@@ -3673,15 +6884,8 @@
         <f t="shared" si="12"/>
         <v>5.2718508890062694E-2</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -3716,7 +6920,7 @@
         <f t="shared" si="6"/>
         <v>0.75562793980674647</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="7"/>
         <v>0.60940852456642502</v>
       </c>
@@ -3740,15 +6944,8 @@
         <f t="shared" si="12"/>
         <v>7.6563725509834743E-2</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -3783,7 +6980,7 @@
         <f t="shared" si="6"/>
         <v>0.80126653728870356</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="7"/>
         <v>0.6513208290612621</v>
       </c>
@@ -3807,15 +7004,8 @@
         <f t="shared" si="12"/>
         <v>0.10784037468050735</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -3850,7 +7040,7 @@
         <f t="shared" si="6"/>
         <v>0.84134474606854304</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="7"/>
         <v>0.69146246127401312</v>
       </c>
@@ -3875,7 +7065,7 @@
         <v>0.14740707903152717</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E13" s="1">
         <v>7</v>
       </c>
@@ -3899,7 +7089,7 @@
         <f t="shared" si="6"/>
         <v>0.87571837589140888</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" si="7"/>
         <v>0.72943698776416588</v>
       </c>
@@ -3924,7 +7114,7 @@
         <v>0.19568296915377595</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -3932,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
@@ -3957,7 +7147,7 @@
         <f t="shared" si="6"/>
         <v>0.90451115326607134</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="7"/>
         <v>0.76492106857116515</v>
       </c>
@@ -3982,7 +7172,7 @@
         <v>0.25249253754692291</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -4015,7 +7205,7 @@
         <f t="shared" si="6"/>
         <v>0.92806613575919239</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" si="7"/>
         <v>0.79767161903635697</v>
       </c>
@@ -4040,7 +7230,7 @@
         <v>0.31696934194067283</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E16" s="1">
         <v>13</v>
       </c>
@@ -4064,7 +7254,7 @@
         <f t="shared" si="6"/>
         <v>0.94688628510999795</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" si="7"/>
         <v>0.82752871058569177</v>
       </c>
@@ -4113,7 +7303,7 @@
         <f t="shared" si="6"/>
         <v>0.96157231432404044</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" si="7"/>
         <v>0.85441434237734604</v>
       </c>
@@ -4162,7 +7352,7 @@
         <f t="shared" si="6"/>
         <v>0.97276480498626128</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="7"/>
         <v>0.87832749542561872</v>
       </c>
@@ -4211,7 +7401,7 @@
         <f t="shared" si="6"/>
         <v>0.98109567026480926</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" si="7"/>
         <v>0.89933610400849928</v>
       </c>
@@ -4260,7 +7450,7 @@
         <f t="shared" si="6"/>
         <v>0.98715179045637358</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f t="shared" si="7"/>
         <v>0.9175667301260455</v>
       </c>
@@ -4309,7 +7499,7 @@
         <f t="shared" si="6"/>
         <v>0.99145150722389519</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f t="shared" si="7"/>
         <v>0.93319279873114191</v>
       </c>
@@ -4358,7 +7548,7 @@
         <f t="shared" si="6"/>
         <v>0.99443294797713511</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <f t="shared" si="7"/>
         <v>0.94642224648386375</v>
       </c>
@@ -4407,7 +7597,7 @@
         <f t="shared" si="6"/>
         <v>0.99645202772823449</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f t="shared" si="7"/>
         <v>0.95748536460956002</v>
       </c>
@@ -4456,7 +7646,7 @@
         <f t="shared" si="6"/>
         <v>0.99778745948483483</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <f t="shared" si="7"/>
         <v>0.96662349241518275</v>
       </c>
@@ -4505,7 +7695,7 @@
         <f t="shared" si="6"/>
         <v>0.9986501019683699</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <f t="shared" si="7"/>
         <v>0.97407906064215699</v>
       </c>
@@ -4530,9 +7720,65 @@
         <v>0.9234362744901653</v>
       </c>
     </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R6:X11"/>
+    <mergeCell ref="F27:L32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F2:P25">
@@ -4543,6 +7789,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4550,9 +7797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AA0B4D-AB25-4F6B-9004-5C6923332E03}">
   <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4567,85 +7814,85 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -4726,7 +7973,7 @@
         <f>_xlfn.BETA.DIST(Y2,10+1,1+1,0)</f>
         <v>1.1093484631071141E-19</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="8">
         <f>AB3-AB2</f>
         <v>7.8740444064013803E-23</v>
       </c>
@@ -4812,11 +8059,11 @@
         <f t="shared" ref="Z3:Z66" si="1">_xlfn.BETA.DIST(Y3,10+1,1+1,0)</f>
         <v>1.1270281582986853E-16</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="8">
         <f t="shared" ref="AA3:AA66" si="2">AB4-AB3</f>
         <v>1.5989216002938497E-19</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="8">
         <v>7.8740444064013803E-23</v>
       </c>
     </row>
@@ -4898,11 +8145,11 @@
         <f t="shared" si="1"/>
         <v>6.4474328147650104E-15</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="8">
         <f t="shared" si="2"/>
         <v>1.3711929653564951E-17</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="8">
         <v>1.5997090047344899E-19</v>
       </c>
     </row>
@@ -4984,11 +8231,11 @@
         <f t="shared" si="1"/>
         <v>1.1357581541915358E-13</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="8">
         <f t="shared" si="2"/>
         <v>3.2185472366687263E-16</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="8">
         <v>1.38719005540384E-17</v>
       </c>
     </row>
@@ -5070,11 +8317,11 @@
         <f t="shared" si="1"/>
         <v>1.0492269082352286E-12</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="8">
         <f t="shared" si="2"/>
         <v>3.7142602138256493E-15</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="8">
         <v>3.3572662422091101E-16</v>
       </c>
     </row>
@@ -5156,11 +8403,11 @@
         <f t="shared" si="1"/>
         <v>6.4437190934636857E-12</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="8">
         <f t="shared" si="2"/>
         <v>2.7354881535164737E-14</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="8">
         <v>4.0499868380465602E-15</v>
       </c>
     </row>
@@ -5242,11 +8489,11 @@
         <f t="shared" si="1"/>
         <v>2.9855890932770082E-11</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="8">
         <f t="shared" si="2"/>
         <v>1.477693102974127E-13</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="8">
         <v>3.1404868373211298E-14</v>
       </c>
     </row>
@@ -5328,11 +8575,11 @@
         <f t="shared" si="1"/>
         <v>1.125499693444004E-10</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="8">
         <f t="shared" si="2"/>
         <v>6.3620297054050398E-13</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="8">
         <v>1.7917417867062401E-13</v>
       </c>
     </row>
@@ -5414,11 +8661,11 @@
         <f t="shared" si="1"/>
         <v>3.6244016618566337E-10</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="8">
         <f t="shared" si="2"/>
         <v>2.3032344681463222E-12</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="8">
         <v>8.1537714921112796E-13</v>
       </c>
     </row>
@@ -5500,11 +8747,11 @@
         <f t="shared" si="1"/>
         <v>1.0307332176900742E-9</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="8">
         <f t="shared" si="2"/>
         <v>7.27276071590555E-12</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="8">
         <v>3.11861161735745E-12</v>
       </c>
     </row>
@@ -5586,11 +8833,11 @@
         <f t="shared" si="1"/>
         <v>2.6508001006416511E-9</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="8">
         <f t="shared" si="2"/>
         <v>2.0559425139538802E-11</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="8">
         <v>1.0391372333263E-11</v>
       </c>
     </row>
@@ -5672,11 +8919,11 @@
         <f t="shared" si="1"/>
         <v>6.2738584327703721E-9</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA13" s="8">
         <f t="shared" si="2"/>
         <v>5.3044452422083593E-11</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="8">
         <v>3.0950797472801803E-11</v>
       </c>
     </row>
@@ -5758,11 +9005,11 @@
         <f t="shared" si="1"/>
         <v>1.3848273383290998E-8</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="8">
         <f t="shared" si="2"/>
         <v>1.267476681170056E-10</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="8">
         <v>8.3995249894885396E-11</v>
       </c>
     </row>
@@ -5844,11 +9091,11 @@
         <f t="shared" si="1"/>
         <v>2.8803779206015324E-8</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="8">
         <f t="shared" si="2"/>
         <v>2.8369365476790695E-10</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="8">
         <v>2.1074291801189101E-10</v>
       </c>
     </row>
@@ -5930,11 +9177,11 @@
         <f t="shared" si="1"/>
         <v>5.6918742817847056E-8</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="8">
         <f t="shared" si="2"/>
         <v>6.0018309448918198E-10</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="8">
         <v>4.9443657277979796E-10</v>
       </c>
     </row>
@@ -6016,11 +9263,11 @@
         <f t="shared" si="1"/>
         <v>1.0756775736808795E-7</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="8">
         <f t="shared" si="2"/>
         <v>1.2089217492618E-9</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="8">
         <v>1.0946196672689799E-9</v>
       </c>
     </row>
@@ -6102,11 +9349,11 @@
         <f t="shared" si="1"/>
         <v>1.9546835479976599E-7</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="8">
         <f t="shared" si="2"/>
         <v>2.3322441045648598E-9</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="8">
         <v>2.3035414165307799E-9</v>
       </c>
     </row>
@@ -6188,11 +9435,11 @@
         <f t="shared" si="1"/>
         <v>3.4306941444666335E-7</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="8">
         <f t="shared" si="2"/>
         <v>4.33061049250825E-9</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="8">
         <v>4.6357855210956397E-9</v>
       </c>
     </row>
@@ -6274,11 +9521,11 @@
         <f t="shared" si="1"/>
         <v>5.8374983732491195E-7</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="8">
         <f t="shared" si="2"/>
         <v>7.771668414660109E-9</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="8">
         <v>8.9663960136038896E-9</v>
       </c>
     </row>
@@ -6360,11 +9607,11 @@
         <f t="shared" si="1"/>
         <v>9.6602413568458382E-7</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="8">
         <f t="shared" si="2"/>
         <v>1.3526462235255199E-8</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="8">
         <v>1.6738064428263999E-8</v>
       </c>
     </row>
@@ -6380,11 +9627,11 @@
         <f t="shared" si="1"/>
         <v>1.5589816024358514E-6</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AA22" s="8">
         <f t="shared" si="2"/>
         <v>2.2900860062910205E-8</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="8">
         <v>3.0264526663519197E-8</v>
       </c>
     </row>
@@ -6400,11 +9647,11 @@
         <f t="shared" si="1"/>
         <v>2.4592174882397247E-6</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="8">
         <f t="shared" si="2"/>
         <v>3.7811950033633493E-8</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="8">
         <v>5.3165386726429402E-8</v>
       </c>
     </row>
@@ -6420,11 +9667,11 @@
         <f t="shared" si="1"/>
         <v>3.7995479034715526E-6</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AA24" s="8">
         <f t="shared" si="2"/>
         <v>6.1021045482657113E-8</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="8">
         <v>9.0977336760062896E-8</v>
       </c>
     </row>
@@ -6440,11 +9687,11 @@
         <f t="shared" si="1"/>
         <v>5.759834721175127E-6</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AA25" s="8">
         <f t="shared" si="2"/>
         <v>9.6437032046266993E-8</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="8">
         <v>1.5199838224272001E-7</v>
       </c>
     </row>
@@ -6460,11 +9707,11 @@
         <f t="shared" si="1"/>
         <v>8.5802822939079057E-6</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AA26" s="8">
         <f t="shared" si="2"/>
         <v>1.4950608891638897E-7</v>
       </c>
-      <c r="AB26" s="10">
+      <c r="AB26" s="8">
         <v>2.48435414288987E-7</v>
       </c>
     </row>
@@ -6480,11 +9727,11 @@
         <f t="shared" si="1"/>
         <v>1.2577603985547642E-5</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AA27" s="8">
         <f t="shared" si="2"/>
         <v>2.2770631726429207E-7</v>
       </c>
-      <c r="AB27" s="10">
+      <c r="AB27" s="8">
         <v>3.9794150320537598E-7</v>
       </c>
     </row>
@@ -6500,11 +9747,11 @@
         <f t="shared" si="1"/>
         <v>1.816449299733459E-5</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AA28" s="8">
         <f t="shared" si="2"/>
         <v>3.4116850356083587E-7</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AB28" s="8">
         <v>6.2564782046966804E-7</v>
       </c>
     </row>
@@ -6520,11 +9767,11 @@
         <f t="shared" si="1"/>
         <v>2.5872868339438286E-5</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AA29" s="8">
         <f t="shared" si="2"/>
         <v>5.0344712246287615E-7</v>
       </c>
-      <c r="AB29" s="10">
+      <c r="AB29" s="8">
         <v>9.6681632403050391E-7</v>
       </c>
     </row>
@@ -6540,11 +9787,11 @@
         <f t="shared" si="1"/>
         <v>3.6381402634081033E-5</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="8">
         <f t="shared" si="2"/>
         <v>7.324687271198301E-7</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="8">
         <v>1.4702634464933801E-6</v>
       </c>
     </row>
@@ -6560,11 +9807,11 @@
         <f t="shared" si="1"/>
         <v>5.0547873267757378E-5</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA31" s="8">
         <f t="shared" si="2"/>
         <v>1.05168806357926E-6</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AB31" s="8">
         <v>2.2027321736132102E-6</v>
       </c>
     </row>
@@ -6580,11 +9827,11 @@
         <f t="shared" si="1"/>
         <v>6.9446911737545825E-5</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA32" s="8">
         <f t="shared" si="2"/>
         <v>1.4914855549137295E-6</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="8">
         <v>3.2544202371924702E-6</v>
       </c>
     </row>
@@ -6600,11 +9847,11 @@
         <f t="shared" si="1"/>
         <v>9.4413757324218614E-5</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AA33" s="8">
         <f t="shared" si="2"/>
         <v>2.0908431990063299E-6</v>
       </c>
-      <c r="AB33" s="10">
+      <c r="AB33" s="8">
         <v>4.7459057921061997E-6</v>
       </c>
     </row>
@@ -6620,11 +9867,11 @@
         <f t="shared" si="1"/>
         <v>1.2709464990226445E-4</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AA34" s="8">
         <f t="shared" si="2"/>
         <v>2.8993393753426906E-6</v>
       </c>
-      <c r="AB34" s="10">
+      <c r="AB34" s="8">
         <v>6.8367489911125297E-6</v>
       </c>
     </row>
@@ -6640,11 +9887,11 @@
         <f t="shared" si="1"/>
         <v>1.6950452215861526E-4</v>
       </c>
-      <c r="AA35" s="10">
+      <c r="AA35" s="8">
         <f t="shared" si="2"/>
         <v>3.9795065185600801E-6</v>
       </c>
-      <c r="AB35" s="10">
+      <c r="AB35" s="8">
         <v>9.7360883664552203E-6</v>
       </c>
     </row>
@@ -6660,11 +9907,11 @@
         <f t="shared" si="1"/>
         <v>2.2409267309752805E-4</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AA36" s="8">
         <f t="shared" si="2"/>
         <v>5.4095990416743992E-6</v>
       </c>
-      <c r="AB36" s="10">
+      <c r="AB36" s="8">
         <v>1.37155948850153E-5</v>
       </c>
     </row>
@@ -6680,11 +9927,11 @@
         <f t="shared" si="1"/>
         <v>2.938171217835574E-4</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AA37" s="8">
         <f t="shared" si="2"/>
         <v>7.2868222251966987E-6</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AB37" s="8">
         <v>1.91251939266897E-5</v>
       </c>
     </row>
@@ -6700,11 +9947,11 @@
         <f t="shared" si="1"/>
         <v>3.8222835210779504E-4</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AA38" s="8">
         <f t="shared" si="2"/>
         <v>9.7310759684331015E-6</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AB38" s="8">
         <v>2.6412016151886398E-5</v>
       </c>
     </row>
@@ -6720,11 +9967,11 @@
         <f t="shared" si="1"/>
         <v>4.9356316520976105E-4</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AA39" s="8">
         <f t="shared" si="2"/>
         <v>1.2889270257789297E-5</v>
       </c>
-      <c r="AB39" s="10">
+      <c r="AB39" s="8">
         <v>3.61430921203195E-5</v>
       </c>
     </row>
@@ -6740,11 +9987,11 @@
         <f t="shared" si="1"/>
         <v>6.3284935526857031E-4</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AA40" s="8">
         <f t="shared" si="2"/>
         <v>1.69402718683306E-5</v>
       </c>
-      <c r="AB40" s="10">
+      <c r="AB40" s="8">
         <v>4.9032362378108797E-5</v>
       </c>
     </row>
@@ -6760,11 +10007,11 @@
         <f t="shared" si="1"/>
         <v>8.0602191587786246E-4</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AA41" s="8">
         <f t="shared" si="2"/>
         <v>2.2100544096046208E-5</v>
       </c>
-      <c r="AB41" s="10">
+      <c r="AB41" s="8">
         <v>6.5972634246439397E-5</v>
       </c>
     </row>
@@ -6780,11 +10027,11 @@
         <f t="shared" si="1"/>
         <v>1.0200514672897103E-3</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AA42" s="8">
         <f t="shared" si="2"/>
         <v>2.86305431284014E-5</v>
       </c>
-      <c r="AB42" s="10">
+      <c r="AB42" s="8">
         <v>8.8073178342485604E-5</v>
       </c>
     </row>
@@ -6800,7 +10047,7 @@
         <f t="shared" si="1"/>
         <v>1.2830855685692598E-3</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AA43" s="8">
         <f t="shared" si="2"/>
         <v>3.6841935900912997E-5</v>
       </c>
@@ -6820,7 +10067,7 @@
         <f t="shared" si="1"/>
         <v>1.6046035422245858E-3</v>
       </c>
-      <c r="AA44" s="10">
+      <c r="AA44" s="8">
         <f t="shared" si="2"/>
         <v>4.7105704850557996E-5</v>
       </c>
@@ -6840,7 +10087,7 @@
         <f t="shared" si="1"/>
         <v>1.9955853912115846E-3</v>
       </c>
-      <c r="AA45" s="10">
+      <c r="AA45" s="8">
         <f t="shared" si="2"/>
         <v>5.9861204747178008E-5</v>
       </c>
@@ -6860,7 +10107,7 @@
         <f t="shared" si="1"/>
         <v>2.4686953283720057E-3</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AA46" s="8">
         <f t="shared" si="2"/>
         <v>7.5626235637501994E-5</v>
       </c>
@@ -6880,7 +10127,7 @@
         <f t="shared" si="1"/>
         <v>3.0384803653209533E-3</v>
       </c>
-      <c r="AA47" s="10">
+      <c r="AA47" s="8">
         <f t="shared" si="2"/>
         <v>9.5008193739800023E-5</v>
       </c>
@@ -6900,7 +10147,7 @@
         <f t="shared" si="1"/>
         <v>3.7215843204987898E-3</v>
       </c>
-      <c r="AA48" s="10">
+      <c r="AA48" s="8">
         <f t="shared" si="2"/>
         <v>1.1871635873851897E-4</v>
       </c>
@@ -6920,7 +10167,7 @@
         <f t="shared" si="1"/>
         <v>4.536977503448723E-3</v>
       </c>
-      <c r="AA49" s="10">
+      <c r="AA49" s="8">
         <f t="shared" si="2"/>
         <v>1.4757537119639604E-4</v>
       </c>
@@ -6940,7 +10187,7 @@
         <f t="shared" si="1"/>
         <v>5.5062022132457318E-3</v>
       </c>
-      <c r="AA50" s="10">
+      <c r="AA50" s="8">
         <f t="shared" si="2"/>
         <v>1.8253994756607498E-4</v>
       </c>
@@ -6960,7 +10207,7 @@
         <f t="shared" si="1"/>
         <v>6.6536340522234299E-3</v>
       </c>
-      <c r="AA51" s="10">
+      <c r="AA51" s="8">
         <f t="shared" si="2"/>
         <v>2.2471087237472208E-4</v>
       </c>
@@ -6980,7 +10227,7 @@
         <f t="shared" si="1"/>
         <v>8.0067589005224683E-3</v>
       </c>
-      <c r="AA52" s="10">
+      <c r="AA52" s="8">
         <f t="shared" si="2"/>
         <v>2.7535229739478998E-4</v>
       </c>
@@ -7000,7 +10247,7 @@
         <f t="shared" si="1"/>
         <v>9.5964652212868623E-3</v>
       </c>
-      <c r="AA53" s="10">
+      <c r="AA53" s="8">
         <f t="shared" si="2"/>
         <v>3.3591036581391001E-4</v>
       </c>
@@ -7020,7 +10267,7 @@
         <f t="shared" si="1"/>
         <v>1.1457351169291724E-2</v>
       </c>
-      <c r="AA54" s="10">
+      <c r="AA54" s="8">
         <f t="shared" si="2"/>
         <v>4.0803316538013984E-4</v>
       </c>
@@ -7040,7 +10287,7 @@
         <f t="shared" si="1"/>
         <v>1.3628045756099244E-2</v>
       </c>
-      <c r="AA55" s="10">
+      <c r="AA55" s="8">
         <f t="shared" si="2"/>
         <v>4.9359199802007005E-4</v>
       </c>
@@ -7060,7 +10307,7 @@
         <f t="shared" si="1"/>
         <v>1.6151543081166592E-2</v>
       </c>
-      <c r="AA56" s="10">
+      <c r="AA56" s="8">
         <f t="shared" si="2"/>
         <v>5.9470393429117982E-4</v>
       </c>
@@ -7080,7 +10327,7 @@
         <f t="shared" si="1"/>
         <v>1.9075548369301049E-2</v>
       </c>
-      <c r="AA57" s="10">
+      <c r="AA57" s="8">
         <f t="shared" si="2"/>
         <v>7.1375559901688031E-4</v>
       </c>
@@ -7100,7 +10347,7 @@
         <f t="shared" si="1"/>
         <v>2.2452834259065281E-2</v>
       </c>
-      <c r="AA58" s="10">
+      <c r="AA58" s="8">
         <f t="shared" si="2"/>
         <v>8.5342810932942988E-4</v>
       </c>
@@ -7120,7 +10367,7 @@
         <f t="shared" si="1"/>
         <v>2.6341605462736638E-2</v>
       </c>
-      <c r="AA59" s="10">
+      <c r="AA59" s="8">
         <f t="shared" si="2"/>
         <v>1.0167230578801301E-3</v>
       </c>
@@ -7140,7 +10387,7 @@
         <f t="shared" si="1"/>
         <v>3.0805869564742697E-2</v>
       </c>
-      <c r="AA60" s="10">
+      <c r="AA60" s="8">
         <f t="shared" si="2"/>
         <v>1.2069894019226396E-3</v>
       </c>
@@ -7160,7 +10407,7 @@
         <f t="shared" si="1"/>
         <v>3.5915811340617151E-2</v>
       </c>
-      <c r="AA61" s="10">
+      <c r="AA61" s="8">
         <f t="shared" si="2"/>
         <v>1.4279510830881E-3</v>
       </c>
@@ -7180,7 +10427,7 @@
         <f t="shared" si="1"/>
         <v>4.1748167560901925E-2</v>
       </c>
-      <c r="AA62" s="10">
+      <c r="AA62" s="8">
         <f t="shared" si="2"/>
         <v>1.6837351627015801E-3</v>
       </c>
@@ -7200,7 +10447,7 @@
         <f t="shared" si="1"/>
         <v>4.8386598792477267E-2</v>
       </c>
-      <c r="AA63" s="10">
+      <c r="AA63" s="8">
         <f t="shared" si="2"/>
         <v>1.9789002131837003E-3</v>
       </c>
@@ -7220,7 +10467,7 @@
         <f t="shared" si="1"/>
         <v>5.5922054221918135E-2</v>
       </c>
-      <c r="AA64" s="10">
+      <c r="AA64" s="8">
         <f t="shared" si="2"/>
         <v>2.3184646571904003E-3</v>
       </c>
@@ -7240,7 +10487,7 @@
         <f t="shared" si="1"/>
         <v>6.4453124999999986E-2</v>
       </c>
-      <c r="AA65" s="10">
+      <c r="AA65" s="8">
         <f t="shared" si="2"/>
         <v>2.7079346924218997E-3</v>
       </c>
@@ -7260,7 +10507,7 @@
         <f t="shared" si="1"/>
         <v>7.4086381041723395E-2</v>
       </c>
-      <c r="AA66" s="10">
+      <c r="AA66" s="8">
         <f t="shared" si="2"/>
         <v>3.1533313812311982E-3</v>
       </c>
@@ -7280,8 +10527,8 @@
         <f t="shared" ref="Z67:Z129" si="4">_xlfn.BETA.DIST(Y67,10+1,1+1,0)</f>
         <v>8.493668561047335E-2</v>
       </c>
-      <c r="AA67" s="10">
-        <f t="shared" ref="AA67:AA129" si="5">AB68-AB67</f>
+      <c r="AA67" s="8">
+        <f t="shared" ref="AA67:AA128" si="5">AB68-AB67</f>
         <v>3.6612164200640028E-3</v>
       </c>
       <c r="AB67">
@@ -7300,7 +10547,7 @@
         <f t="shared" si="4"/>
         <v>9.7127481366421922E-2</v>
       </c>
-      <c r="AA68" s="10">
+      <c r="AA68" s="8">
         <f t="shared" si="5"/>
         <v>4.2387160341355E-3</v>
       </c>
@@ -7320,7 +10567,7 @@
         <f t="shared" si="4"/>
         <v>0.1107910408662266</v>
       </c>
-      <c r="AA69" s="10">
+      <c r="AA69" s="8">
         <f t="shared" si="5"/>
         <v>4.8935423674139958E-3</v>
       </c>
@@ -7340,7 +10587,7 @@
         <f t="shared" si="4"/>
         <v>0.12606867376165176</v>
       </c>
-      <c r="AA70" s="10">
+      <c r="AA70" s="8">
         <f t="shared" si="5"/>
         <v>5.6340116567601059E-3</v>
       </c>
@@ -7360,7 +10607,7 @@
         <f t="shared" si="4"/>
         <v>0.14311088215707932</v>
       </c>
-      <c r="AA71" s="10">
+      <c r="AA71" s="8">
         <f t="shared" si="5"/>
         <v>6.4690583918338984E-3</v>
       </c>
@@ -7380,7 +10627,7 @@
         <f t="shared" si="4"/>
         <v>0.16207745474808938</v>
       </c>
-      <c r="AA72" s="10">
+      <c r="AA72" s="8">
         <f t="shared" si="5"/>
         <v>7.408244569047602E-3</v>
       </c>
@@ -7400,7 +10647,7 @@
         <f t="shared" si="4"/>
         <v>0.18313748947343808</v>
       </c>
-      <c r="AA73" s="10">
+      <c r="AA73" s="8">
         <f t="shared" si="5"/>
         <v>8.4617630483704992E-3</v>
       </c>
@@ -7420,7 +10667,7 @@
         <f t="shared" si="4"/>
         <v>0.2064693334689055</v>
       </c>
-      <c r="AA74" s="10">
+      <c r="AA74" s="8">
         <f t="shared" si="5"/>
         <v>9.6404339162491914E-3</v>
       </c>
@@ -7440,7 +10687,7 @@
         <f t="shared" si="4"/>
         <v>0.23226042811156783</v>
       </c>
-      <c r="AA75" s="10">
+      <c r="AA75" s="8">
         <f t="shared" si="5"/>
         <v>1.0955692646389403E-2</v>
       </c>
@@ -7460,7 +10707,7 @@
         <f t="shared" si="4"/>
         <v>0.26070704588511917</v>
       </c>
-      <c r="AA76" s="10">
+      <c r="AA76" s="8">
         <f t="shared" si="5"/>
         <v>1.2419568732938896E-2</v>
       </c>
@@ -7480,7 +10727,7 @@
         <f t="shared" si="4"/>
         <v>0.29201390467877048</v>
       </c>
-      <c r="AA77" s="10">
+      <c r="AA77" s="8">
         <f t="shared" si="5"/>
         <v>1.4044653348069314E-2</v>
       </c>
@@ -7500,7 +10747,7 @@
         <f t="shared" si="4"/>
         <v>0.32639364395193826</v>
       </c>
-      <c r="AA78" s="10">
+      <c r="AA78" s="8">
         <f t="shared" si="5"/>
         <v>1.5844054448631989E-2</v>
       </c>
@@ -7520,7 +10767,7 @@
         <f t="shared" si="4"/>
         <v>0.36406614595225695</v>
       </c>
-      <c r="AA79" s="10">
+      <c r="AA79" s="8">
         <f t="shared" si="5"/>
         <v>1.783133762521201E-2</v>
       </c>
@@ -7540,7 +10787,7 @@
         <f t="shared" si="4"/>
         <v>0.40525768386319866</v>
       </c>
-      <c r="AA80" s="10">
+      <c r="AA80" s="8">
         <f t="shared" si="5"/>
         <v>2.002045085259499E-2</v>
       </c>
@@ -7560,7 +10807,7 @@
         <f t="shared" si="4"/>
         <v>0.45019987737759931</v>
       </c>
-      <c r="AA81" s="10">
+      <c r="AA81" s="8">
         <f t="shared" si="5"/>
         <v>2.2425631164537996E-2</v>
       </c>
@@ -7580,7 +10827,7 @@
         <f t="shared" si="4"/>
         <v>0.49912843474239238</v>
       </c>
-      <c r="AA82" s="10">
+      <c r="AA82" s="8">
         <f t="shared" si="5"/>
         <v>2.5061291139791997E-2</v>
       </c>
@@ -7600,7 +10847,7 @@
         <f t="shared" si="4"/>
         <v>0.55228165879557034</v>
       </c>
-      <c r="AA83" s="10">
+      <c r="AA83" s="8">
         <f t="shared" si="5"/>
         <v>2.7941882952393998E-2</v>
       </c>
@@ -7620,7 +10867,7 @@
         <f t="shared" si="4"/>
         <v>0.60989869291654253</v>
       </c>
-      <c r="AA84" s="10">
+      <c r="AA84" s="8">
         <f t="shared" si="5"/>
         <v>3.1081737610308025E-2</v>
       </c>
@@ -7640,7 +10887,7 @@
         <f t="shared" si="4"/>
         <v>0.67221748113321511</v>
       </c>
-      <c r="AA85" s="10">
+      <c r="AA85" s="8">
         <f t="shared" si="5"/>
         <v>3.4494876885908965E-2</v>
       </c>
@@ -7660,7 +10907,7 @@
         <f t="shared" si="4"/>
         <v>0.73947241487101689</v>
       </c>
-      <c r="AA86" s="10">
+      <c r="AA86" s="8">
         <f t="shared" si="5"/>
         <v>3.8194795333795051E-2</v>
       </c>
@@ -7680,7 +10927,7 @@
         <f t="shared" si="4"/>
         <v>0.81189163698817657</v>
       </c>
-      <c r="AA87" s="10">
+      <c r="AA87" s="8">
         <f t="shared" si="5"/>
         <v>4.2194209701402974E-2</v>
       </c>
@@ -7700,7 +10947,7 @@
         <f t="shared" si="4"/>
         <v>0.88969397181549326</v>
       </c>
-      <c r="AA88" s="10">
+      <c r="AA88" s="8">
         <f t="shared" si="5"/>
         <v>4.6504772972569997E-2</v>
       </c>
@@ -7720,7 +10967,7 @@
         <f t="shared" si="4"/>
         <v>0.973085447905078</v>
       </c>
-      <c r="AA89" s="10">
+      <c r="AA89" s="8">
         <f t="shared" si="5"/>
         <v>5.1136750251578988E-2</v>
       </c>
@@ -7740,7 +10987,7 @@
         <f t="shared" si="4"/>
         <v>1.0622553780885324</v>
       </c>
-      <c r="AA90" s="10">
+      <c r="AA90" s="8">
         <f t="shared" si="5"/>
         <v>5.6098653705856982E-2</v>
       </c>
@@ -7760,7 +11007,7 @@
         <f t="shared" si="4"/>
         <v>1.1573719592483334</v>
       </c>
-      <c r="AA91" s="10">
+      <c r="AA91" s="8">
         <f t="shared" si="5"/>
         <v>6.1396833851667054E-2</v>
       </c>
@@ -7780,7 +11027,7 @@
         <f t="shared" si="4"/>
         <v>1.2585773519140222</v>
       </c>
-      <c r="AA92" s="10">
+      <c r="AA92" s="8">
         <f t="shared" si="5"/>
         <v>6.7035024604850002E-2</v>
       </c>
@@ -7800,7 +11047,7 @@
         <f t="shared" si="4"/>
         <v>1.3659821974047746</v>
       </c>
-      <c r="AA93" s="10">
+      <c r="AA93" s="8">
         <f t="shared" si="5"/>
         <v>7.3013839747100961E-2</v>
       </c>
@@ -7820,7 +11067,7 @@
         <f t="shared" si="4"/>
         <v>1.4796595277490938</v>
       </c>
-      <c r="AA94" s="10">
+      <c r="AA94" s="8">
         <f t="shared" si="5"/>
         <v>7.933021880172697E-2</v>
       </c>
@@ -7840,7 +11087,7 @@
         <f t="shared" si="4"/>
         <v>1.5996380210183463</v>
       </c>
-      <c r="AA95" s="10">
+      <c r="AA95" s="8">
         <f t="shared" si="5"/>
         <v>8.5976820801010989E-2</v>
       </c>
@@ -7860,7 +11107,7 @@
         <f t="shared" si="4"/>
         <v>1.7258945520106539</v>
       </c>
-      <c r="AA96" s="10">
+      <c r="AA96" s="8">
         <f t="shared" si="5"/>
         <v>9.2941365097806039E-2</v>
       </c>
@@ -7880,7 +11127,7 @@
         <f t="shared" si="4"/>
         <v>1.8583459854125977</v>
       </c>
-      <c r="AA97" s="10">
+      <c r="AA97" s="8">
         <f t="shared" si="5"/>
         <v>0.10020591927279299</v>
       </c>
@@ -7900,7 +11147,7 @@
         <f t="shared" si="4"/>
         <v>1.9968401556455804</v>
       </c>
-      <c r="AA98" s="10">
+      <c r="AA98" s="8">
         <f t="shared" si="5"/>
         <v>0.10774613537427014</v>
       </c>
@@ -7920,7 +11167,7 @@
         <f t="shared" si="4"/>
         <v>2.1411459745684671</v>
       </c>
-      <c r="AA99" s="10">
+      <c r="AA99" s="8">
         <f t="shared" si="5"/>
         <v>0.11553043727136991</v>
       </c>
@@ -7940,7 +11187,7 @@
         <f t="shared" si="4"/>
         <v>2.2909426050556396</v>
       </c>
-      <c r="AA100" s="10">
+      <c r="AA100" s="8">
         <f t="shared" si="5"/>
         <v>0.12351916389577999</v>
       </c>
@@ -7960,7 +11207,7 @@
         <f t="shared" si="4"/>
         <v>2.4458076351967919</v>
       </c>
-      <c r="AA101" s="10">
+      <c r="AA101" s="8">
         <f t="shared" si="5"/>
         <v>0.13166367570455995</v>
       </c>
@@ -7980,7 +11227,7 @@
         <f t="shared" si="4"/>
         <v>2.6052041844688172</v>
       </c>
-      <c r="AA102" s="10">
+      <c r="AA102" s="8">
         <f t="shared" si="5"/>
         <v>0.13990543496190999</v>
       </c>
@@ -8000,7 +11247,7 @@
         <f t="shared" si="4"/>
         <v>2.7684668697079298</v>
       </c>
-      <c r="AA103" s="10">
+      <c r="AA103" s="8">
         <f t="shared" si="5"/>
         <v>0.14817507459234003</v>
       </c>
@@ -8020,7 +11267,7 @@
         <f t="shared" si="4"/>
         <v>2.9347865550588228</v>
       </c>
-      <c r="AA104" s="10">
+      <c r="AA104" s="8">
         <f t="shared" si="5"/>
         <v>0.65187267867248022</v>
       </c>
@@ -8040,7 +11287,7 @@
         <f t="shared" si="4"/>
         <v>3.1031938062940299</v>
       </c>
-      <c r="AA105" s="10">
+      <c r="AA105" s="8">
         <f t="shared" si="5"/>
         <v>0.64880016236771976</v>
       </c>
@@ -8060,7 +11307,7 @@
         <f t="shared" si="4"/>
         <v>3.2725409659777074</v>
       </c>
-      <c r="AA106" s="10">
+      <c r="AA106" s="8">
         <f t="shared" si="5"/>
         <v>0.64732804598060012</v>
       </c>
@@ -8080,7 +11327,7 @@
         <f t="shared" si="4"/>
         <v>3.4414827618907209</v>
       </c>
-      <c r="AA107" s="10">
+      <c r="AA107" s="8">
         <f t="shared" si="5"/>
         <v>0.64757587804198957</v>
       </c>
@@ -8100,7 +11347,7 @@
         <f t="shared" si="4"/>
         <v>3.6084553569349138</v>
       </c>
-      <c r="AA108" s="10">
+      <c r="AA108" s="8">
         <f t="shared" si="5"/>
         <v>0.64965403378319042</v>
       </c>
@@ -8120,7 +11367,7 @@
         <f t="shared" si="4"/>
         <v>3.7716537443907119</v>
       </c>
-      <c r="AA109" s="10">
+      <c r="AA109" s="8">
         <f t="shared" si="5"/>
         <v>0.65366092058213976</v>
       </c>
@@ -8140,7 +11387,7 @@
         <f t="shared" si="4"/>
         <v>3.9290073879104916</v>
       </c>
-      <c r="AA110" s="10">
+      <c r="AA110" s="8">
         <f t="shared" si="5"/>
         <v>0.65967988542060052</v>
       </c>
@@ -8160,7 +11407,7 @@
         <f t="shared" si="4"/>
         <v>4.0781540009871584</v>
       </c>
-      <c r="AA111" s="10">
+      <c r="AA111" s="8">
         <f t="shared" si="5"/>
         <v>0.66777577663676002</v>
       </c>
@@ -8180,7 +11427,7 @@
         <f t="shared" si="4"/>
         <v>4.2164113558398304</v>
       </c>
-      <c r="AA112" s="10">
+      <c r="AA112" s="8">
         <f t="shared" si="5"/>
         <v>0.67799120756766929</v>
       </c>
@@ -8200,7 +11447,7 @@
         <f t="shared" si="4"/>
         <v>4.3407470067031682</v>
       </c>
-      <c r="AA113" s="10">
+      <c r="AA113" s="8">
         <f t="shared" si="5"/>
         <v>0.69034239566263</v>
       </c>
@@ -8220,7 +11467,7 @@
         <f t="shared" si="4"/>
         <v>4.4477458073902598</v>
       </c>
-      <c r="AA114" s="10">
+      <c r="AA114" s="8">
         <f t="shared" si="5"/>
         <v>0.70481463415419121</v>
       </c>
@@ -8240,7 +11487,7 @@
         <f t="shared" si="4"/>
         <v>4.5335750977177369</v>
       </c>
-      <c r="AA115" s="10">
+      <c r="AA115" s="8">
         <f t="shared" si="5"/>
         <v>0.72135733155974968</v>
       </c>
@@ -8260,7 +11507,7 @@
         <f t="shared" si="4"/>
         <v>4.5939474279325037</v>
       </c>
-      <c r="AA116" s="10">
+      <c r="AA116" s="8">
         <f t="shared" si="5"/>
         <v>0.73987859596914873</v>
       </c>
@@ -8280,7 +11527,7 @@
         <f t="shared" si="4"/>
         <v>4.6240806846586819</v>
       </c>
-      <c r="AA117" s="10">
+      <c r="AA117" s="8">
         <f t="shared" si="5"/>
         <v>0.76023933230450069</v>
       </c>
@@ -8300,7 +11547,7 @@
         <f t="shared" si="4"/>
         <v>4.6186554760875582</v>
       </c>
-      <c r="AA118" s="10">
+      <c r="AA118" s="8">
         <f t="shared" si="5"/>
         <v>0.78224681870950086</v>
       </c>
@@ -8320,7 +11567,7 @@
         <f t="shared" si="4"/>
         <v>4.5717696281589175</v>
       </c>
-      <c r="AA119" s="10">
+      <c r="AA119" s="8">
         <f t="shared" si="5"/>
         <v>0.80564772611749902</v>
       </c>
@@ -8340,7 +11587,7 @@
         <f t="shared" si="4"/>
         <v>4.4768896373257441</v>
       </c>
-      <c r="AA120" s="10">
+      <c r="AA120" s="8">
         <f t="shared" si="5"/>
         <v>0.83012054284839998</v>
       </c>
@@ -8360,7 +11607,7 @@
         <f t="shared" si="4"/>
         <v>4.3267989191519973</v>
       </c>
-      <c r="AA121" s="10">
+      <c r="AA121" s="8">
         <f t="shared" si="5"/>
         <v>0.85526736335379994</v>
       </c>
@@ -8380,7 +11627,7 @@
         <f t="shared" si="4"/>
         <v>4.1135426854616455</v>
       </c>
-      <c r="AA122" s="10">
+      <c r="AA122" s="8">
         <f t="shared" si="5"/>
         <v>0.88060500138180053</v>
       </c>
@@ -8400,7 +11647,7 @@
         <f t="shared" si="4"/>
         <v>3.8283692760325612</v>
       </c>
-      <c r="AA123" s="10">
+      <c r="AA123" s="8">
         <f t="shared" si="5"/>
         <v>0.9055553736935007</v>
       </c>
@@ -8420,7 +11667,7 @@
         <f t="shared" si="4"/>
         <v>3.461667763907486</v>
       </c>
-      <c r="AA124" s="10">
+      <c r="AA124" s="8">
         <f t="shared" si="5"/>
         <v>0.92943511981239979</v>
       </c>
@@ -8440,7 +11687,7 @@
         <f t="shared" si="4"/>
         <v>3.0029016462725302</v>
       </c>
-      <c r="AA125" s="10">
+      <c r="AA125" s="8">
         <f t="shared" si="5"/>
         <v>0.95144439571580008</v>
       </c>
@@ -8460,7 +11707,7 @@
         <f t="shared" si="4"/>
         <v>2.4405384255275053</v>
       </c>
-      <c r="AA126" s="10">
+      <c r="AA126" s="8">
         <f t="shared" si="5"/>
         <v>0.97065479411719835</v>
       </c>
@@ -8480,7 +11727,7 @@
         <f t="shared" si="4"/>
         <v>1.7619748776382822</v>
       </c>
-      <c r="AA127" s="10">
+      <c r="AA127" s="8">
         <f t="shared" si="5"/>
         <v>0.98599633422380251</v>
       </c>
@@ -8500,7 +11747,7 @@
         <f t="shared" si="4"/>
         <v>0.9534577971152427</v>
       </c>
-      <c r="AA128" s="10">
+      <c r="AA128" s="8">
         <f t="shared" si="5"/>
         <v>0.99624346204929992</v>
       </c>
@@ -8520,7 +11767,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA129" s="10"/>
+      <c r="AA129" s="8"/>
       <c r="AB129">
         <v>21.277558595144502</v>
       </c>

--- a/doc/model.xlsx
+++ b/doc/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\qt652\AutoTechSim\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCAA89-D023-42FF-9D2C-4993A831DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268C717-525F-400A-9A0F-7504712C2E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
   </bookViews>
   <sheets>
     <sheet name="snr" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>SNR</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,75 +62,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>b10</t>
-  </si>
-  <si>
-    <t>b11</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
-    <t>b13</t>
-  </si>
-  <si>
-    <t>b14</t>
-  </si>
-  <si>
-    <t>b15</t>
-  </si>
-  <si>
-    <t>b16</t>
-  </si>
-  <si>
-    <t>b17</t>
-  </si>
-  <si>
-    <t>b18</t>
-  </si>
-  <si>
-    <t>b19</t>
-  </si>
-  <si>
-    <t>b20</t>
-  </si>
-  <si>
     <t>b(a11,b2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,14 +71,6 @@
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -185,11 +108,18 @@
   <si>
     <t>SNR100</t>
   </si>
+  <si>
+    <t>b(100,50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,11 +238,11 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3014,7 +2944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>beta!$Z$1</c:f>
+              <c:f>beta!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3049,785 +2979,617 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>beta!$Y$2:$Y$129</c:f>
+              <c:f>beta!$D$2:$D$101</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7.8125E-3</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.34375E-2</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.90625E-2</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6875E-2</c:v>
+                  <c:v>0.68899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.46875E-2</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.03125E-2</c:v>
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8125E-2</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.59375E-2</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1015625</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.109375</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1171875</c:v>
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.125</c:v>
+                  <c:v>0.66800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1328125</c:v>
+                  <c:v>0.68700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.140625</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1484375</c:v>
+                  <c:v>0.68899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15625</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1640625</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.171875</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1796875</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1953125</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.203125</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2109375</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2265625</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.234375</c:v>
+                  <c:v>0.63700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2421875</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25</c:v>
+                  <c:v>0.65300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2578125</c:v>
+                  <c:v>0.70499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.68500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2734375</c:v>
+                  <c:v>0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2890625</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.296875</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3046875</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3203125</c:v>
+                  <c:v>0.624</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.328125</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3359375</c:v>
+                  <c:v>0.67800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3515625</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.359375</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3671875</c:v>
+                  <c:v>0.66600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.375</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3828125</c:v>
+                  <c:v>0.67800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.390625</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3984375</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.40625</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.4140625</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.421875</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.4296875</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.4453125</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.453125</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.4609375</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.4765625</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.484375</c:v>
+                  <c:v>0.67600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.4921875</c:v>
+                  <c:v>0.68400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5078125</c:v>
+                  <c:v>0.63700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.515625</c:v>
+                  <c:v>0.70199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5234375</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5390625</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.546875</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5546875</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5703125</c:v>
+                  <c:v>0.70899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.578125</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5859375</c:v>
+                  <c:v>0.68700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.59375</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.6015625</c:v>
+                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.609375</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.6171875</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.625</c:v>
+                  <c:v>0.57799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.6328125</c:v>
+                  <c:v>0.67800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.640625</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.6484375</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.6640625</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.671875</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6796875</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.6953125</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.703125</c:v>
+                  <c:v>0.70499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.7109375</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.71875</c:v>
+                  <c:v>0.70199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.7265625</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.734375</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.7421875</c:v>
+                  <c:v>0.66400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.75</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.7578125</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.765625</c:v>
+                  <c:v>0.71099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.7734375</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.7890625</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.796875</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.8046875</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.8203125</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.828125</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.8359375</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.8515625</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.859375</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.8671875</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.8828125</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.890625</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.8984375</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.9140625</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.921875</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.9296875</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.9453125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.953125</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.9609375</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.9765625</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.984375</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.9921875</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1</c:v>
+                  <c:v>0.65900000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>beta!$Z$2:$Z$129</c:f>
+              <c:f>beta!$C$2:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
                 <c:pt idx="0">
-                  <c:v>1.1093484631071141E-19</c:v>
+                  <c:v>4.100323896882915E-157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1270281582986853E-16</c:v>
+                  <c:v>1.5803049799647314E-127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4474328147650104E-15</c:v>
+                  <c:v>2.5912709440064181E-110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1357581541915358E-13</c:v>
+                  <c:v>3.6468944119532116E-98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0492269082352286E-12</c:v>
+                  <c:v>8.5739454769614465E-89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4437190934636857E-12</c:v>
+                  <c:v>3.5231590005794105E-81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9855890932770082E-11</c:v>
+                  <c:v>8.8524619671275117E-75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.125499693444004E-10</c:v>
+                  <c:v>2.8721418236644194E-69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6244016618566337E-10</c:v>
+                  <c:v>1.948634050895446E-64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0307332176900742E-9</c:v>
+                  <c:v>3.8421701315974061E-60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6508001006416511E-9</c:v>
+                  <c:v>2.7840676583628554E-56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2738584327703721E-9</c:v>
+                  <c:v>8.8163317336986188E-53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3848273383290998E-8</c:v>
+                  <c:v>1.3916463526703574E-49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8803779206015324E-8</c:v>
+                  <c:v>1.2128114044028402E-46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6918742817847056E-8</c:v>
+                  <c:v>6.3278421284092977E-44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0756775736808795E-7</c:v>
+                  <c:v>2.1098759852259216E-41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9546835479976599E-7</c:v>
+                  <c:v>4.7420198969657698E-39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4306941444666335E-7</c:v>
+                  <c:v>7.508451866763554E-37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8374983732491195E-7</c:v>
+                  <c:v>8.6909259263403606E-35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.6602413568458382E-7</c:v>
+                  <c:v>7.5870432952062983E-33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5589816024358514E-6</c:v>
+                  <c:v>5.1301643796596746E-31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4592174882397247E-6</c:v>
+                  <c:v>2.7489988758712115E-29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7995479034715526E-6</c:v>
+                  <c:v>1.1906796420024139E-27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.759834721175127E-6</c:v>
+                  <c:v>4.2410420666841875E-26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5802822939079057E-6</c:v>
+                  <c:v>1.2611199435438096E-24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2577603985547642E-5</c:v>
+                  <c:v>3.1725563522135697E-23</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.816449299733459E-5</c:v>
+                  <c:v>6.8316628713364816E-22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5872868339438286E-5</c:v>
+                  <c:v>1.2724216707974155E-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.6381402634081033E-5</c:v>
+                  <c:v>2.0689714996767505E-19</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0547873267757378E-5</c:v>
+                  <c:v>2.9614322869636881E-18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9446911737545825E-5</c:v>
+                  <c:v>3.7592980959390881E-17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.4413757324218614E-5</c:v>
+                  <c:v>4.2606730121527383E-16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2709464990226445E-4</c:v>
+                  <c:v>4.3374952207118823E-15</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6950452215861526E-4</c:v>
+                  <c:v>3.9880377237930462E-14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2409267309752805E-4</c:v>
+                  <c:v>3.3280090237891588E-13</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.938171217835574E-4</c:v>
+                  <c:v>2.5319780137141436E-12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8222835210779504E-4</c:v>
+                  <c:v>1.7634016177380103E-11</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9356316520976105E-4</c:v>
+                  <c:v>1.1283984462913679E-10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.3284935526857031E-4</c:v>
+                  <c:v>6.656587424032944E-10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.0602191587786246E-4</c:v>
+                  <c:v>3.6311487427730432E-9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0200514672897103E-3</c:v>
+                  <c:v>1.8367244816777149E-8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2830855685692598E-3</c:v>
+                  <c:v>8.6366448854016381E-8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6046035422245858E-3</c:v>
+                  <c:v>3.7838913647884877E-7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9955853912115846E-3</c:v>
+                  <c:v>1.5478252405051947E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4686953283720057E-3</c:v>
+                  <c:v>5.9224892076502816E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0384803653209533E-3</c:v>
+                  <c:v>2.123308981586667E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.7215843204987898E-3</c:v>
+                  <c:v>7.1433046934261441E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.536977503448723E-3</c:v>
+                  <c:v>2.258083343842732E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5062022132457318E-3</c:v>
+                  <c:v>6.7149716064520478E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.6536340522234299E-3</c:v>
+                  <c:v>1.8804174414481442E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.0067589005224683E-3</c:v>
+                  <c:v>4.9630538124897979E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.5964652212868623E-3</c:v>
+                  <c:v>1.2355071989819026E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1457351169291724E-2</c:v>
+                  <c:v>2.902683995366857E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3628045756099244E-2</c:v>
+                  <c:v>6.4388692151321009E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6151543081166592E-2</c:v>
+                  <c:v>0.13490034611314983</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9075548369301049E-2</c:v>
+                  <c:v>0.26698659120317236</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2452834259065281E-2</c:v>
+                  <c:v>0.49918170949810681</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6341605462736638E-2</c:v>
+                  <c:v>0.88161753849005242</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0805869564742697E-2</c:v>
+                  <c:v>1.4704550759333748</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.5915811340617151E-2</c:v>
+                  <c:v>2.3152985088672877</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1748167560901925E-2</c:v>
+                  <c:v>3.4396403850123698</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.8386598792477267E-2</c:v>
+                  <c:v>4.8180036377547442</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.5922054221918135E-2</c:v>
+                  <c:v>6.3575898142080662</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.4453124999999986E-2</c:v>
+                  <c:v>7.8946629097938859</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4086381041723395E-2</c:v>
+                  <c:v>9.2140403510068385</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.493668561047335E-2</c:v>
+                  <c:v>10.092765499145642</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.7127481366421922E-2</c:v>
+                  <c:v>10.35814891525111</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1107910408662266</c:v>
+                  <c:v>9.9408821358364019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.12606867376165176</c:v>
+                  <c:v>8.9017749378235962</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.14311088215707932</c:v>
+                  <c:v>7.4189265544475944</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.16207745474808938</c:v>
+                  <c:v>5.7381520133270421</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.18313748947343808</c:v>
+                  <c:v>4.1053889730875524</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.2064693334689055</c:v>
+                  <c:v>2.7069561752166535</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.23226042811156783</c:v>
+                  <c:v>1.6380529377462467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.26070704588511917</c:v>
+                  <c:v>0.90535546970817293</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.29201390467877048</c:v>
+                  <c:v>0.45455884061983048</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.32639364395193826</c:v>
+                  <c:v>0.20603423332962667</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.36406614595225695</c:v>
+                  <c:v>8.3708711236447408E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.40525768386319866</c:v>
+                  <c:v>3.0235775268882971E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.45019987737759931</c:v>
+                  <c:v>9.6177199871257078E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.49912843474239238</c:v>
+                  <c:v>2.6646301936457707E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.55228165879557034</c:v>
+                  <c:v>6.3477200501988373E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.60989869291654253</c:v>
+                  <c:v>1.2806248408856453E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.67221748113321511</c:v>
+                  <c:v>2.1489291609229968E-5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.73947241487101689</c:v>
+                  <c:v>2.9352085814354168E-6</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.81189163698817657</c:v>
+                  <c:v>3.1791721870731422E-7</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.88969397181549326</c:v>
+                  <c:v>2.6443802280638071E-8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.973085447905078</c:v>
+                  <c:v>1.62315213828541E-9</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0622553780885324</c:v>
+                  <c:v>6.9911055591382235E-11</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1573719592483334</c:v>
+                  <c:v>1.9801681166532272E-12</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2585773519140222</c:v>
+                  <c:v>3.3859023695451835E-14</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3659821974047746</c:v>
+                  <c:v>3.1124178604983732E-16</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.4796595277490938</c:v>
+                  <c:v>1.3071020523260349E-18</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5996380210183463</c:v>
+                  <c:v>1.9758883663145399E-21</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.7258945520106539</c:v>
+                  <c:v>7.4278096395478477E-25</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.8583459854125977</c:v>
+                  <c:v>3.7366745576610186E-29</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9968401556455804</c:v>
+                  <c:v>7.8711248773432641E-35</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.1411459745684671</c:v>
+                  <c:v>5.1114593357392051E-43</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.2909426050556396</c:v>
+                  <c:v>2.4807208348433013E-57</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4458076351967919</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.6052041844688172</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.7684668697079298</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.9347865550588228</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3.1031938062940299</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.2725409659777074</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.4414827618907209</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.6084553569349138</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.7716537443907119</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.9290073879104916</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4.0781540009871584</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4.2164113558398304</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4.3407470067031682</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4.4477458073902598</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>4.5335750977177369</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.5939474279325037</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4.6240806846586819</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4.6186554760875582</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4.5717696281589175</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>4.4768896373257441</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>4.3267989191519973</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4.1135426854616455</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3.8283692760325612</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>3.461667763907486</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3.0029016462725302</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.4405384255275053</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.7619748776382822</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.9534577971152427</c:v>
-                </c:pt>
-                <c:pt idx="127">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3836,835 +3598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-07C6-44B2-B6AF-0C7D425AEAE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>beta!$AA$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>c1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>beta!$Y$2:$Y$129</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.34375E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.90625E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6875E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.46875E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.03125E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8125E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.59375E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1015625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.109375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1171875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1328125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.140625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1484375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1640625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.171875</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1796875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1953125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.203125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.2109375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.21875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.2265625</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.234375</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.2421875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.2578125</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.265625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2734375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.2890625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.296875</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.3046875</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.3203125</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.328125</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.3359375</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.34375</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.3515625</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.359375</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.3671875</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.3828125</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.390625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.3984375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.40625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.4140625</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.421875</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.4296875</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.4453125</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.453125</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.4609375</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.4765625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.484375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.4921875</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.5078125</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.515625</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.5234375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.5390625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.546875</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.5546875</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.5703125</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.578125</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.5859375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.59375</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.6015625</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.609375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.6171875</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.6328125</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.640625</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.6484375</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.65625</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.6640625</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.671875</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.6796875</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.6953125</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.703125</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.7109375</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.7265625</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.734375</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.7421875</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.7578125</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.765625</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.7734375</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.78125</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.7890625</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.796875</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.8046875</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.8203125</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.828125</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.8359375</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.8515625</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.859375</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.8671875</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.8828125</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.890625</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.8984375</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.9140625</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.921875</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.9296875</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.9453125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.953125</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.9609375</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.96875</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.9765625</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.984375</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.9921875</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>beta!$AA$2:$AA$129</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>7.8740444064013803E-23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5989216002938497E-19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3711929653564951E-17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2185472366687263E-16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7142602138256493E-15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7354881535164737E-14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.477693102974127E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3620297054050398E-13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3032344681463222E-12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.27276071590555E-12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0559425139538802E-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.3044452422083593E-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.267476681170056E-10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8369365476790695E-10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0018309448918198E-10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2089217492618E-9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3322441045648598E-9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.33061049250825E-9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.771668414660109E-9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3526462235255199E-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2900860062910205E-8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7811950033633493E-8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.1021045482657113E-8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6437032046266993E-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4950608891638897E-7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2770631726429207E-7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.4116850356083587E-7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0344712246287615E-7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.324687271198301E-7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.05168806357926E-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.4914855549137295E-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.0908431990063299E-6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.8993393753426906E-6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9795065185600801E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.4095990416743992E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.2868222251966987E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.7310759684331015E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.2889270257789297E-5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.69402718683306E-5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.2100544096046208E-5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.86305431284014E-5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.6841935900912997E-5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.7105704850557996E-5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.9861204747178008E-5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.5626235637501994E-5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.5008193739800023E-5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1871635873851897E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4757537119639604E-4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.8253994756607498E-4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.2471087237472208E-4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.7535229739478998E-4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.3591036581391001E-4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.0803316538013984E-4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.9359199802007005E-4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.9470393429117982E-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.1375559901688031E-4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.5342810932942988E-4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.0167230578801301E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2069894019226396E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4279510830881E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.6837351627015801E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9789002131837003E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.3184646571904003E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.7079346924218997E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.1533313812311982E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.6612164200640028E-3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.2387160341355E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.8935423674139958E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.6340116567601059E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.4690583918338984E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.408244569047602E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.4617630483704992E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.6404339162491914E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.0955692646389403E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.2419568732938896E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.4044653348069314E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5844054448631989E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.783133762521201E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.002045085259499E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.2425631164537996E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.5061291139791997E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.7941882952393998E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.1081737610308025E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.4494876885908965E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.8194795333795051E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.2194209701402974E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.6504772972569997E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.1136750251578988E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.6098653705856982E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.1396833851667054E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.7035024604850002E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.3013839747100961E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.933021880172697E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.5976820801010989E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.2941365097806039E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.10020591927279299</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.10774613537427014</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.11553043727136991</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.12351916389577999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.13166367570455995</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.13990543496190999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.14817507459234003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.65187267867248022</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.64880016236771976</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.64732804598060012</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.64757587804198957</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.64965403378319042</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.65366092058213976</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.65967988542060052</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.66777577663676002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.67799120756766929</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.69034239566263</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.70481463415419121</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.72135733155974968</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.73987859596914873</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.76023933230450069</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.78224681870950086</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.80564772611749902</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.83012054284839998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.85526736335379994</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.88060500138180053</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.9055553736935007</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.92943511981239979</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.95144439571580008</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.97065479411719835</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.98599633422380251</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.99624346204929992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-07C6-44B2-B6AF-0C7D425AEAE7}"/>
+              <c16:uniqueId val="{00000000-E88F-4EF0-A97F-6814F224C63E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4688,7 +3622,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6004,27 +4938,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D4BCE1-430F-4D15-B76A-EC5100017DF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58F6662-9F6B-40E4-8C07-D9D4DFB2F2CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6340,9 +5276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78851A5-F45D-4E7E-A098-4969DEC3D558}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6372,37 +5308,37 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7721,60 +6657,60 @@
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7795,3981 +6731,1632 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AA0B4D-AB25-4F6B-9004-5C6923332E03}">
-  <dimension ref="A1:AB129"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.625" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2/COUNT($A$2:$A$129)</f>
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.BETA.DIST(B2,100,50,0)</f>
+        <v>4.100323896882915E-157</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>A3/COUNT($A$2:$A$129)</f>
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">_xlfn.BETA.DIST(B3,100,50,0)</f>
+        <v>1.5803049799647314E-127</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>A4/COUNT($A$2:$A$129)</f>
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.5912709440064181E-110</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>A5/COUNT($A$2:$A$129)</f>
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.6468944119532116E-98</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>A6/COUNT($A$2:$A$129)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.5739454769614465E-89</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>A7/COUNT($A$2:$A$129)</f>
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.5231590005794105E-81</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>A8/COUNT($A$2:$A$129)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.8524619671275117E-75</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>A9/COUNT($A$2:$A$129)</f>
+        <v>0.08</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.8721418236644194E-69</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>A10/COUNT($A$2:$A$129)</f>
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.948634050895446E-64</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11">
+        <f>A11/COUNT($A$2:$A$129)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.8421701315974061E-60</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B12">
+        <f>A12/COUNT($A$2:$A$129)</f>
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.7840676583628554E-56</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B13">
+        <f>A13/COUNT($A$2:$A$129)</f>
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8.8163317336986188E-53</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B14">
+        <f>A14/COUNT($A$2:$A$129)</f>
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.3916463526703574E-49</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B15">
+        <f>A15/COUNT($A$2:$A$129)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.2128114044028402E-46</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B16">
+        <f>A16/COUNT($A$2:$A$129)</f>
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.3278421284092977E-44</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B17">
+        <f>A17/COUNT($A$2:$A$129)</f>
+        <v>0.16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.1098759852259216E-41</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B18">
+        <f>A18/COUNT($A$2:$A$129)</f>
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4.7420198969657698E-39</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B19">
+        <f>A19/COUNT($A$2:$A$129)</f>
+        <v>0.18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.508451866763554E-37</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B20">
+        <f>A20/COUNT($A$2:$A$129)</f>
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>8.6909259263403606E-35</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B21">
+        <f>A21/COUNT($A$2:$A$129)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>7.5870432952062983E-33</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B22">
+        <f>A22/COUNT($A$2:$A$129)</f>
+        <v>0.21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5.1301643796596746E-31</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B23">
+        <f>A23/COUNT($A$2:$A$129)</f>
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.7489988758712115E-29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B24">
+        <f>A24/COUNT($A$2:$A$129)</f>
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.1906796420024139E-27</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B25">
+        <f>A25/COUNT($A$2:$A$129)</f>
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4.2410420666841875E-26</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B26">
+        <f>A26/COUNT($A$2:$A$129)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.2611199435438096E-24</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B27">
+        <f>A27/COUNT($A$2:$A$129)</f>
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.1725563522135697E-23</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B28">
+        <f>A28/COUNT($A$2:$A$129)</f>
+        <v>0.27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6.8316628713364816E-22</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B29">
+        <f>A29/COUNT($A$2:$A$129)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.2724216707974155E-20</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="B30">
+        <f>A30/COUNT($A$2:$A$129)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2.0689714996767505E-19</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>A31/COUNT($A$2:$A$129)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2.9614322869636881E-18</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>A32/COUNT($A$2:$A$129)</f>
+        <v>0.31</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3.7592980959390881E-17</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="B33">
+        <f>A33/COUNT($A$2:$A$129)</f>
+        <v>0.32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>4.2606730121527383E-16</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>A34/COUNT($A$2:$A$129)</f>
+        <v>0.33</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>4.3374952207118823E-15</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="AB1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
+      <c r="B35">
+        <f>A35/COUNT($A$2:$A$129)</f>
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3.9880377237930462E-14</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f>A36/COUNT($A$2:$A$129)</f>
+        <v>0.35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3.3280090237891588E-13</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>A37/COUNT($A$2:$A$129)</f>
+        <v>0.36</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2.5319780137141436E-12</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>A38/COUNT($A$2:$A$129)</f>
+        <v>0.37</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.7634016177380103E-11</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>A39/COUNT($A$2:$A$129)</f>
+        <v>0.38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.1283984462913679E-10</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f>A40/COUNT($A$2:$A$129)</f>
+        <v>0.39</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6.656587424032944E-10</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f>A41/COUNT($A$2:$A$129)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3.6311487427730432E-9</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f>A42/COUNT($A$2:$A$129)</f>
+        <v>0.41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.8367244816777149E-8</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f>A43/COUNT($A$2:$A$129)</f>
+        <v>0.42</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>8.6366448854016381E-8</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>A44/COUNT($A$2:$A$129)</f>
+        <v>0.43</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3.7838913647884877E-7</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f>A45/COUNT($A$2:$A$129)</f>
+        <v>0.44</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.5478252405051947E-6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f>A46/COUNT($A$2:$A$129)</f>
+        <v>0.45</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>5.9224892076502816E-6</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f>A47/COUNT($A$2:$A$129)</f>
+        <v>0.46</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2.123308981586667E-5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f>A48/COUNT($A$2:$A$129)</f>
+        <v>0.47</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>7.1433046934261441E-5</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f>A49/COUNT($A$2:$A$129)</f>
+        <v>0.48</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2.258083343842732E-4</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f>A50/COUNT($A$2:$A$129)</f>
+        <v>0.49</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>6.7149716064520478E-4</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f>A51/COUNT($A$2:$A$129)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.8804174414481442E-3</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f>A52/COUNT($A$2:$A$129)</f>
+        <v>0.51</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>4.9630538124897979E-3</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f>A53/COUNT($A$2:$A$129)</f>
+        <v>0.52</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.2355071989819026E-2</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f>A54/COUNT($A$2:$A$129)</f>
+        <v>0.53</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>2.902683995366857E-2</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>A55/COUNT($A$2:$A$129)</f>
+        <v>0.54</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>6.4388692151321009E-2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f>A56/COUNT($A$2:$A$129)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.13490034611314983</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f>A57/COUNT($A$2:$A$129)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.26698659120317236</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f>A58/COUNT($A$2:$A$129)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.49918170949810681</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f>A59/COUNT($A$2:$A$129)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.88161753849005242</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f>A60/COUNT($A$2:$A$129)</f>
+        <v>0.59</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.4704550759333748</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f>A61/COUNT($A$2:$A$129)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>2.3152985088672877</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f>A62/COUNT($A$2:$A$129)</f>
+        <v>0.61</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3.4396403850123698</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f>A63/COUNT($A$2:$A$129)</f>
+        <v>0.62</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>4.8180036377547442</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f>A64/COUNT($A$2:$A$129)</f>
+        <v>0.63</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>6.3575898142080662</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f>A65/COUNT($A$2:$A$129)</f>
+        <v>0.64</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>7.8946629097938859</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f>A66/COUNT($A$2:$A$129)</f>
+        <v>0.65</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>9.2140403510068385</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f>A67/COUNT($A$2:$A$129)</f>
+        <v>0.66</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="1">_xlfn.BETA.DIST(B67,100,50,0)</f>
+        <v>10.092765499145642</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f>A68/COUNT($A$2:$A$129)</f>
+        <v>0.67</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>10.35814891525111</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f>A69/COUNT($A$2:$A$129)</f>
+        <v>0.68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>9.9408821358364019</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f>A70/COUNT($A$2:$A$129)</f>
+        <v>0.69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>8.9017749378235962</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f>A71/COUNT($A$2:$A$129)</f>
+        <v>0.7</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>7.4189265544475944</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f>A72/COUNT($A$2:$A$129)</f>
+        <v>0.71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>5.7381520133270421</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f>A73/COUNT($A$2:$A$129)</f>
+        <v>0.72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>4.1053889730875524</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f>A74/COUNT($A$2:$A$129)</f>
+        <v>0.73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>2.7069561752166535</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f>A75/COUNT($A$2:$A$129)</f>
+        <v>0.74</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>1.6380529377462467</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f>A76/COUNT($A$2:$A$129)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0.90535546970817293</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f>A77/COUNT($A$2:$A$129)</f>
+        <v>0.76</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0.45455884061983048</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f>A78/COUNT($A$2:$A$129)</f>
+        <v>0.77</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0.20603423332962667</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f>A79/COUNT($A$2:$A$129)</f>
+        <v>0.78</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>8.3708711236447408E-2</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f>A80/COUNT($A$2:$A$129)</f>
+        <v>0.79</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>3.0235775268882971E-2</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f>A81/COUNT($A$2:$A$129)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>9.6177199871257078E-3</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f>A82/COUNT($A$2:$A$129)</f>
+        <v>0.81</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>2.6646301936457707E-3</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f>A83/COUNT($A$2:$A$129)</f>
+        <v>0.82</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>6.3477200501988373E-4</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f>A84/COUNT($A$2:$A$129)</f>
+        <v>0.83</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1.2806248408856453E-4</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f>A85/COUNT($A$2:$A$129)</f>
+        <v>0.84</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>2.1489291609229968E-5</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f>A86/COUNT($A$2:$A$129)</f>
+        <v>0.85</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>2.9352085814354168E-6</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f>A87/COUNT($A$2:$A$129)</f>
+        <v>0.86</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>3.1791721870731422E-7</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f>A88/COUNT($A$2:$A$129)</f>
+        <v>0.87</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>2.6443802280638071E-8</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f>A89/COUNT($A$2:$A$129)</f>
+        <v>0.88</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>1.62315213828541E-9</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f>A90/COUNT($A$2:$A$129)</f>
+        <v>0.89</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>6.9911055591382235E-11</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f>A91/COUNT($A$2:$A$129)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>1.9801681166532272E-12</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f>A92/COUNT($A$2:$A$129)</f>
+        <v>0.91</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>3.3859023695451835E-14</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f>A93/COUNT($A$2:$A$129)</f>
+        <v>0.92</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>3.1124178604983732E-16</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f>A94/COUNT($A$2:$A$129)</f>
+        <v>0.93</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>1.3071020523260349E-18</v>
+      </c>
+      <c r="D94" s="9">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f>A95/COUNT($A$2:$A$129)</f>
+        <v>0.94</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>1.9758883663145399E-21</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f>A96/COUNT($A$2:$A$129)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>7.4278096395478477E-25</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f>A97/COUNT($A$2:$A$129)</f>
+        <v>0.96</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>3.7366745576610186E-29</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f>A98/COUNT($A$2:$A$129)</f>
+        <v>0.97</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>7.8711248773432641E-35</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f>A99/COUNT($A$2:$A$129)</f>
+        <v>0.98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>5.1114593357392051E-43</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f>A100/COUNT($A$2:$A$129)</f>
+        <v>0.99</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>2.4807208348433013E-57</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f>A101/COUNT($A$2:$A$129)</f>
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>70</v>
-      </c>
-      <c r="J2">
-        <v>80</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>110</v>
-      </c>
-      <c r="N2">
-        <v>120</v>
-      </c>
-      <c r="O2">
-        <v>130</v>
-      </c>
-      <c r="P2">
-        <v>140</v>
-      </c>
-      <c r="Q2">
-        <v>150</v>
-      </c>
-      <c r="R2">
-        <v>160</v>
-      </c>
-      <c r="S2">
-        <v>170</v>
-      </c>
-      <c r="T2">
-        <v>180</v>
-      </c>
-      <c r="U2">
-        <v>190</v>
-      </c>
-      <c r="V2">
-        <v>200</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <f>X2/COUNT($X$2:$X$129)</f>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="Z2">
-        <f>_xlfn.BETA.DIST(Y2,10+1,1+1,0)</f>
-        <v>1.1093484631071141E-19</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>AB3-AB2</f>
-        <v>7.8740444064013803E-23</v>
-      </c>
-      <c r="AB2">
+      <c r="C101">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>70</v>
-      </c>
-      <c r="J3">
-        <v>80</v>
-      </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>110</v>
-      </c>
-      <c r="N3">
-        <v>120</v>
-      </c>
-      <c r="O3">
-        <v>130</v>
-      </c>
-      <c r="P3">
-        <v>140</v>
-      </c>
-      <c r="Q3">
-        <v>150</v>
-      </c>
-      <c r="R3">
-        <v>160</v>
-      </c>
-      <c r="S3">
-        <v>170</v>
-      </c>
-      <c r="T3">
-        <v>180</v>
-      </c>
-      <c r="U3">
-        <v>190</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="0">X3/COUNT($X$2:$X$129)</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="1">_xlfn.BETA.DIST(Y3,10+1,1+1,0)</f>
-        <v>1.1270281582986853E-16</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA66" si="2">AB4-AB3</f>
-        <v>1.5989216002938497E-19</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>7.8740444064013803E-23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>110</v>
-      </c>
-      <c r="N4">
-        <v>120</v>
-      </c>
-      <c r="O4">
-        <v>130</v>
-      </c>
-      <c r="P4">
-        <v>140</v>
-      </c>
-      <c r="Q4">
-        <v>150</v>
-      </c>
-      <c r="R4">
-        <v>160</v>
-      </c>
-      <c r="S4">
-        <v>170</v>
-      </c>
-      <c r="T4">
-        <v>180</v>
-      </c>
-      <c r="U4">
-        <v>190</v>
-      </c>
-      <c r="V4">
-        <v>200</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>2.34375E-2</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>6.4474328147650104E-15</v>
-      </c>
-      <c r="AA4" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3711929653564951E-17</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>1.5997090047344899E-19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>70</v>
-      </c>
-      <c r="J5">
-        <v>80</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>110</v>
-      </c>
-      <c r="N5">
-        <v>120</v>
-      </c>
-      <c r="O5">
-        <v>130</v>
-      </c>
-      <c r="P5">
-        <v>140</v>
-      </c>
-      <c r="Q5">
-        <v>150</v>
-      </c>
-      <c r="R5">
-        <v>160</v>
-      </c>
-      <c r="S5">
-        <v>170</v>
-      </c>
-      <c r="T5">
-        <v>180</v>
-      </c>
-      <c r="U5">
-        <v>190</v>
-      </c>
-      <c r="V5">
-        <v>200</v>
-      </c>
-      <c r="X5">
-        <v>4</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>1.1357581541915358E-13</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="2"/>
-        <v>3.2185472366687263E-16</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1.38719005540384E-17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="I6">
-        <v>70</v>
-      </c>
-      <c r="J6">
-        <v>80</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>110</v>
-      </c>
-      <c r="N6">
-        <v>120</v>
-      </c>
-      <c r="O6">
-        <v>130</v>
-      </c>
-      <c r="P6">
-        <v>140</v>
-      </c>
-      <c r="Q6">
-        <v>150</v>
-      </c>
-      <c r="R6">
-        <v>160</v>
-      </c>
-      <c r="S6">
-        <v>170</v>
-      </c>
-      <c r="T6">
-        <v>180</v>
-      </c>
-      <c r="U6">
-        <v>190</v>
-      </c>
-      <c r="V6">
-        <v>200</v>
-      </c>
-      <c r="X6">
-        <v>5</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>1.0492269082352286E-12</v>
-      </c>
-      <c r="AA6" s="8">
-        <f t="shared" si="2"/>
-        <v>3.7142602138256493E-15</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>3.3572662422091101E-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7">
-        <v>70</v>
-      </c>
-      <c r="J7">
-        <v>80</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>110</v>
-      </c>
-      <c r="N7">
-        <v>120</v>
-      </c>
-      <c r="O7">
-        <v>130</v>
-      </c>
-      <c r="P7">
-        <v>140</v>
-      </c>
-      <c r="Q7">
-        <v>150</v>
-      </c>
-      <c r="R7">
-        <v>160</v>
-      </c>
-      <c r="S7">
-        <v>170</v>
-      </c>
-      <c r="T7">
-        <v>180</v>
-      </c>
-      <c r="U7">
-        <v>190</v>
-      </c>
-      <c r="V7">
-        <v>200</v>
-      </c>
-      <c r="X7">
-        <v>6</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>6.4437190934636857E-12</v>
-      </c>
-      <c r="AA7" s="8">
-        <f t="shared" si="2"/>
-        <v>2.7354881535164737E-14</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>4.0499868380465602E-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>70</v>
-      </c>
-      <c r="J8">
-        <v>80</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>110</v>
-      </c>
-      <c r="N8">
-        <v>120</v>
-      </c>
-      <c r="O8">
-        <v>130</v>
-      </c>
-      <c r="P8">
-        <v>140</v>
-      </c>
-      <c r="Q8">
-        <v>150</v>
-      </c>
-      <c r="R8">
-        <v>160</v>
-      </c>
-      <c r="S8">
-        <v>170</v>
-      </c>
-      <c r="T8">
-        <v>180</v>
-      </c>
-      <c r="U8">
-        <v>190</v>
-      </c>
-      <c r="V8">
-        <v>200</v>
-      </c>
-      <c r="X8">
-        <v>7</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>5.46875E-2</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>2.9855890932770082E-11</v>
-      </c>
-      <c r="AA8" s="8">
-        <f t="shared" si="2"/>
-        <v>1.477693102974127E-13</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>3.1404868373211298E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9">
-        <v>80</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>110</v>
-      </c>
-      <c r="N9">
-        <v>120</v>
-      </c>
-      <c r="O9">
-        <v>130</v>
-      </c>
-      <c r="P9">
-        <v>140</v>
-      </c>
-      <c r="Q9">
-        <v>150</v>
-      </c>
-      <c r="R9">
-        <v>160</v>
-      </c>
-      <c r="S9">
-        <v>170</v>
-      </c>
-      <c r="T9">
-        <v>180</v>
-      </c>
-      <c r="U9">
-        <v>190</v>
-      </c>
-      <c r="V9">
-        <v>200</v>
-      </c>
-      <c r="X9">
-        <v>8</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="1"/>
-        <v>1.125499693444004E-10</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="2"/>
-        <v>6.3620297054050398E-13</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1.7917417867062401E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>80</v>
-      </c>
-      <c r="K10">
-        <v>90</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>110</v>
-      </c>
-      <c r="N10">
-        <v>120</v>
-      </c>
-      <c r="O10">
-        <v>130</v>
-      </c>
-      <c r="P10">
-        <v>140</v>
-      </c>
-      <c r="Q10">
-        <v>150</v>
-      </c>
-      <c r="R10">
-        <v>160</v>
-      </c>
-      <c r="S10">
-        <v>170</v>
-      </c>
-      <c r="T10">
-        <v>180</v>
-      </c>
-      <c r="U10">
-        <v>190</v>
-      </c>
-      <c r="V10">
-        <v>200</v>
-      </c>
-      <c r="X10">
-        <v>9</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>7.03125E-2</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>3.6244016618566337E-10</v>
-      </c>
-      <c r="AA10" s="8">
-        <f t="shared" si="2"/>
-        <v>2.3032344681463222E-12</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>8.1537714921112796E-13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>80</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>110</v>
-      </c>
-      <c r="N11">
-        <v>120</v>
-      </c>
-      <c r="O11">
-        <v>130</v>
-      </c>
-      <c r="P11">
-        <v>140</v>
-      </c>
-      <c r="Q11">
-        <v>150</v>
-      </c>
-      <c r="R11">
-        <v>160</v>
-      </c>
-      <c r="S11">
-        <v>170</v>
-      </c>
-      <c r="T11">
-        <v>180</v>
-      </c>
-      <c r="U11">
-        <v>190</v>
-      </c>
-      <c r="V11">
-        <v>200</v>
-      </c>
-      <c r="X11">
-        <v>10</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="1"/>
-        <v>1.0307332176900742E-9</v>
-      </c>
-      <c r="AA11" s="8">
-        <f t="shared" si="2"/>
-        <v>7.27276071590555E-12</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>3.11861161735745E-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>80</v>
-      </c>
-      <c r="K12">
-        <v>90</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>110</v>
-      </c>
-      <c r="N12">
-        <v>120</v>
-      </c>
-      <c r="O12">
-        <v>130</v>
-      </c>
-      <c r="P12">
-        <v>140</v>
-      </c>
-      <c r="Q12">
-        <v>150</v>
-      </c>
-      <c r="R12">
-        <v>160</v>
-      </c>
-      <c r="S12">
-        <v>170</v>
-      </c>
-      <c r="T12">
-        <v>180</v>
-      </c>
-      <c r="U12">
-        <v>190</v>
-      </c>
-      <c r="V12">
-        <v>200</v>
-      </c>
-      <c r="X12">
-        <v>11</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>8.59375E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="1"/>
-        <v>2.6508001006416511E-9</v>
-      </c>
-      <c r="AA12" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0559425139538802E-11</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1.0391372333263E-11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <v>70</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <v>110</v>
-      </c>
-      <c r="N13">
-        <v>120</v>
-      </c>
-      <c r="O13">
-        <v>130</v>
-      </c>
-      <c r="P13">
-        <v>140</v>
-      </c>
-      <c r="Q13">
-        <v>150</v>
-      </c>
-      <c r="R13">
-        <v>160</v>
-      </c>
-      <c r="S13">
-        <v>170</v>
-      </c>
-      <c r="T13">
-        <v>180</v>
-      </c>
-      <c r="U13">
-        <v>190</v>
-      </c>
-      <c r="V13">
-        <v>200</v>
-      </c>
-      <c r="X13">
-        <v>12</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="1"/>
-        <v>6.2738584327703721E-9</v>
-      </c>
-      <c r="AA13" s="8">
-        <f t="shared" si="2"/>
-        <v>5.3044452422083593E-11</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>3.0950797472801803E-11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="I14">
-        <v>70</v>
-      </c>
-      <c r="J14">
-        <v>80</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>110</v>
-      </c>
-      <c r="N14">
-        <v>120</v>
-      </c>
-      <c r="O14">
-        <v>130</v>
-      </c>
-      <c r="P14">
-        <v>140</v>
-      </c>
-      <c r="Q14">
-        <v>150</v>
-      </c>
-      <c r="R14">
-        <v>160</v>
-      </c>
-      <c r="S14">
-        <v>170</v>
-      </c>
-      <c r="T14">
-        <v>180</v>
-      </c>
-      <c r="U14">
-        <v>190</v>
-      </c>
-      <c r="V14">
-        <v>200</v>
-      </c>
-      <c r="X14">
-        <v>13</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0.1015625</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="1"/>
-        <v>1.3848273383290998E-8</v>
-      </c>
-      <c r="AA14" s="8">
-        <f t="shared" si="2"/>
-        <v>1.267476681170056E-10</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>8.3995249894885396E-11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="I15">
-        <v>70</v>
-      </c>
-      <c r="J15">
-        <v>80</v>
-      </c>
-      <c r="K15">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>110</v>
-      </c>
-      <c r="N15">
-        <v>120</v>
-      </c>
-      <c r="O15">
-        <v>130</v>
-      </c>
-      <c r="P15">
-        <v>140</v>
-      </c>
-      <c r="Q15">
-        <v>150</v>
-      </c>
-      <c r="R15">
-        <v>160</v>
-      </c>
-      <c r="S15">
-        <v>170</v>
-      </c>
-      <c r="T15">
-        <v>180</v>
-      </c>
-      <c r="U15">
-        <v>190</v>
-      </c>
-      <c r="V15">
-        <v>200</v>
-      </c>
-      <c r="X15">
-        <v>14</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0.109375</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>2.8803779206015324E-8</v>
-      </c>
-      <c r="AA15" s="8">
-        <f t="shared" si="2"/>
-        <v>2.8369365476790695E-10</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>2.1074291801189101E-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>150</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="I16">
-        <v>70</v>
-      </c>
-      <c r="J16">
-        <v>80</v>
-      </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>110</v>
-      </c>
-      <c r="N16">
-        <v>120</v>
-      </c>
-      <c r="O16">
-        <v>130</v>
-      </c>
-      <c r="P16">
-        <v>140</v>
-      </c>
-      <c r="Q16">
-        <v>150</v>
-      </c>
-      <c r="R16">
-        <v>160</v>
-      </c>
-      <c r="S16">
-        <v>170</v>
-      </c>
-      <c r="T16">
-        <v>180</v>
-      </c>
-      <c r="U16">
-        <v>190</v>
-      </c>
-      <c r="V16">
-        <v>200</v>
-      </c>
-      <c r="X16">
-        <v>15</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>0.1171875</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="1"/>
-        <v>5.6918742817847056E-8</v>
-      </c>
-      <c r="AA16" s="8">
-        <f t="shared" si="2"/>
-        <v>6.0018309448918198E-10</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>4.9443657277979796E-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="I17">
-        <v>70</v>
-      </c>
-      <c r="J17">
-        <v>80</v>
-      </c>
-      <c r="K17">
-        <v>90</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17">
-        <v>110</v>
-      </c>
-      <c r="N17">
-        <v>120</v>
-      </c>
-      <c r="O17">
-        <v>130</v>
-      </c>
-      <c r="P17">
-        <v>140</v>
-      </c>
-      <c r="Q17">
-        <v>150</v>
-      </c>
-      <c r="R17">
-        <v>160</v>
-      </c>
-      <c r="S17">
-        <v>170</v>
-      </c>
-      <c r="T17">
-        <v>180</v>
-      </c>
-      <c r="U17">
-        <v>190</v>
-      </c>
-      <c r="V17">
-        <v>200</v>
-      </c>
-      <c r="X17">
-        <v>16</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="1"/>
-        <v>1.0756775736808795E-7</v>
-      </c>
-      <c r="AA17" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2089217492618E-9</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>1.0946196672689799E-9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>170</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-      <c r="I18">
-        <v>70</v>
-      </c>
-      <c r="J18">
-        <v>80</v>
-      </c>
-      <c r="K18">
-        <v>90</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>110</v>
-      </c>
-      <c r="N18">
-        <v>120</v>
-      </c>
-      <c r="O18">
-        <v>130</v>
-      </c>
-      <c r="P18">
-        <v>140</v>
-      </c>
-      <c r="Q18">
-        <v>150</v>
-      </c>
-      <c r="R18">
-        <v>160</v>
-      </c>
-      <c r="S18">
-        <v>170</v>
-      </c>
-      <c r="T18">
-        <v>180</v>
-      </c>
-      <c r="U18">
-        <v>190</v>
-      </c>
-      <c r="V18">
-        <v>200</v>
-      </c>
-      <c r="X18">
-        <v>17</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>0.1328125</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="1"/>
-        <v>1.9546835479976599E-7</v>
-      </c>
-      <c r="AA18" s="8">
-        <f t="shared" si="2"/>
-        <v>2.3322441045648598E-9</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>2.3035414165307799E-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>180</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>40</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="I19">
-        <v>70</v>
-      </c>
-      <c r="J19">
-        <v>80</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>110</v>
-      </c>
-      <c r="N19">
-        <v>120</v>
-      </c>
-      <c r="O19">
-        <v>130</v>
-      </c>
-      <c r="P19">
-        <v>140</v>
-      </c>
-      <c r="Q19">
-        <v>150</v>
-      </c>
-      <c r="R19">
-        <v>160</v>
-      </c>
-      <c r="S19">
-        <v>170</v>
-      </c>
-      <c r="T19">
-        <v>180</v>
-      </c>
-      <c r="U19">
-        <v>190</v>
-      </c>
-      <c r="V19">
-        <v>200</v>
-      </c>
-      <c r="X19">
-        <v>18</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>0.140625</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="1"/>
-        <v>3.4306941444666335E-7</v>
-      </c>
-      <c r="AA19" s="8">
-        <f t="shared" si="2"/>
-        <v>4.33061049250825E-9</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>4.6357855210956397E-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>70</v>
-      </c>
-      <c r="J20">
-        <v>80</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20">
-        <v>110</v>
-      </c>
-      <c r="N20">
-        <v>120</v>
-      </c>
-      <c r="O20">
-        <v>130</v>
-      </c>
-      <c r="P20">
-        <v>140</v>
-      </c>
-      <c r="Q20">
-        <v>150</v>
-      </c>
-      <c r="R20">
-        <v>160</v>
-      </c>
-      <c r="S20">
-        <v>170</v>
-      </c>
-      <c r="T20">
-        <v>180</v>
-      </c>
-      <c r="U20">
-        <v>190</v>
-      </c>
-      <c r="V20">
-        <v>200</v>
-      </c>
-      <c r="X20">
-        <v>19</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>0.1484375</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="1"/>
-        <v>5.8374983732491195E-7</v>
-      </c>
-      <c r="AA20" s="8">
-        <f t="shared" si="2"/>
-        <v>7.771668414660109E-9</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>8.9663960136038896E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>40</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21">
-        <v>80</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <v>110</v>
-      </c>
-      <c r="N21">
-        <v>120</v>
-      </c>
-      <c r="O21">
-        <v>130</v>
-      </c>
-      <c r="P21">
-        <v>140</v>
-      </c>
-      <c r="Q21">
-        <v>150</v>
-      </c>
-      <c r="R21">
-        <v>160</v>
-      </c>
-      <c r="S21">
-        <v>170</v>
-      </c>
-      <c r="T21">
-        <v>180</v>
-      </c>
-      <c r="U21">
-        <v>190</v>
-      </c>
-      <c r="V21">
-        <v>200</v>
-      </c>
-      <c r="X21">
-        <v>20</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>0.15625</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="1"/>
-        <v>9.6602413568458382E-7</v>
-      </c>
-      <c r="AA21" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3526462235255199E-8</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>1.6738064428263999E-8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X22">
-        <v>21</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>0.1640625</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="1"/>
-        <v>1.5589816024358514E-6</v>
-      </c>
-      <c r="AA22" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2900860062910205E-8</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>3.0264526663519197E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X23">
-        <v>22</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>0.171875</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="1"/>
-        <v>2.4592174882397247E-6</v>
-      </c>
-      <c r="AA23" s="8">
-        <f t="shared" si="2"/>
-        <v>3.7811950033633493E-8</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>5.3165386726429402E-8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X24">
-        <v>23</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>0.1796875</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="1"/>
-        <v>3.7995479034715526E-6</v>
-      </c>
-      <c r="AA24" s="8">
-        <f t="shared" si="2"/>
-        <v>6.1021045482657113E-8</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>9.0977336760062896E-8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X25">
-        <v>24</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="1"/>
-        <v>5.759834721175127E-6</v>
-      </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="2"/>
-        <v>9.6437032046266993E-8</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>1.5199838224272001E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X26">
-        <v>25</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>0.1953125</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="1"/>
-        <v>8.5802822939079057E-6</v>
-      </c>
-      <c r="AA26" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4950608891638897E-7</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>2.48435414288987E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X27">
-        <v>26</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>0.203125</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="1"/>
-        <v>1.2577603985547642E-5</v>
-      </c>
-      <c r="AA27" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2770631726429207E-7</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>3.9794150320537598E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X28">
-        <v>27</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>0.2109375</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="1"/>
-        <v>1.816449299733459E-5</v>
-      </c>
-      <c r="AA28" s="8">
-        <f t="shared" si="2"/>
-        <v>3.4116850356083587E-7</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>6.2564782046966804E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X29">
-        <v>28</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>0.21875</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="1"/>
-        <v>2.5872868339438286E-5</v>
-      </c>
-      <c r="AA29" s="8">
-        <f t="shared" si="2"/>
-        <v>5.0344712246287615E-7</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>9.6681632403050391E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X30">
-        <v>29</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>0.2265625</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="1"/>
-        <v>3.6381402634081033E-5</v>
-      </c>
-      <c r="AA30" s="8">
-        <f t="shared" si="2"/>
-        <v>7.324687271198301E-7</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>1.4702634464933801E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X31">
-        <v>30</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>0.234375</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="1"/>
-        <v>5.0547873267757378E-5</v>
-      </c>
-      <c r="AA31" s="8">
-        <f t="shared" si="2"/>
-        <v>1.05168806357926E-6</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>2.2027321736132102E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X32">
-        <v>31</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>0.2421875</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="1"/>
-        <v>6.9446911737545825E-5</v>
-      </c>
-      <c r="AA32" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4914855549137295E-6</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>3.2544202371924702E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X33">
-        <v>32</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="1"/>
-        <v>9.4413757324218614E-5</v>
-      </c>
-      <c r="AA33" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0908431990063299E-6</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>4.7459057921061997E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X34">
-        <v>33</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>0.2578125</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="1"/>
-        <v>1.2709464990226445E-4</v>
-      </c>
-      <c r="AA34" s="8">
-        <f t="shared" si="2"/>
-        <v>2.8993393753426906E-6</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>6.8367489911125297E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X35">
-        <v>34</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>0.265625</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="1"/>
-        <v>1.6950452215861526E-4</v>
-      </c>
-      <c r="AA35" s="8">
-        <f t="shared" si="2"/>
-        <v>3.9795065185600801E-6</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>9.7360883664552203E-6</v>
-      </c>
-    </row>
-    <row r="36" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X36">
-        <v>35</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>0.2734375</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="1"/>
-        <v>2.2409267309752805E-4</v>
-      </c>
-      <c r="AA36" s="8">
-        <f t="shared" si="2"/>
-        <v>5.4095990416743992E-6</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>1.37155948850153E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X37">
-        <v>36</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>0.28125</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="1"/>
-        <v>2.938171217835574E-4</v>
-      </c>
-      <c r="AA37" s="8">
-        <f t="shared" si="2"/>
-        <v>7.2868222251966987E-6</v>
-      </c>
-      <c r="AB37" s="8">
-        <v>1.91251939266897E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X38">
-        <v>37</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>0.2890625</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="1"/>
-        <v>3.8222835210779504E-4</v>
-      </c>
-      <c r="AA38" s="8">
-        <f t="shared" si="2"/>
-        <v>9.7310759684331015E-6</v>
-      </c>
-      <c r="AB38" s="8">
-        <v>2.6412016151886398E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X39">
-        <v>38</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>0.296875</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="1"/>
-        <v>4.9356316520976105E-4</v>
-      </c>
-      <c r="AA39" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2889270257789297E-5</v>
-      </c>
-      <c r="AB39" s="8">
-        <v>3.61430921203195E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X40">
-        <v>39</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>0.3046875</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="1"/>
-        <v>6.3284935526857031E-4</v>
-      </c>
-      <c r="AA40" s="8">
-        <f t="shared" si="2"/>
-        <v>1.69402718683306E-5</v>
-      </c>
-      <c r="AB40" s="8">
-        <v>4.9032362378108797E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X41">
-        <v>40</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="1"/>
-        <v>8.0602191587786246E-4</v>
-      </c>
-      <c r="AA41" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2100544096046208E-5</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>6.5972634246439397E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X42">
-        <v>41</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>0.3203125</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="1"/>
-        <v>1.0200514672897103E-3</v>
-      </c>
-      <c r="AA42" s="8">
-        <f t="shared" si="2"/>
-        <v>2.86305431284014E-5</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>8.8073178342485604E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X43">
-        <v>42</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="0"/>
-        <v>0.328125</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="1"/>
-        <v>1.2830855685692598E-3</v>
-      </c>
-      <c r="AA43" s="8">
-        <f t="shared" si="2"/>
-        <v>3.6841935900912997E-5</v>
-      </c>
-      <c r="AB43">
-        <v>1.16703721470887E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X44">
-        <v>43</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="0"/>
-        <v>0.3359375</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="1"/>
-        <v>1.6046035422245858E-3</v>
-      </c>
-      <c r="AA44" s="8">
-        <f t="shared" si="2"/>
-        <v>4.7105704850557996E-5</v>
-      </c>
-      <c r="AB44">
-        <v>1.535456573718E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X45">
-        <v>44</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="0"/>
-        <v>0.34375</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="1"/>
-        <v>1.9955853912115846E-3</v>
-      </c>
-      <c r="AA45" s="8">
-        <f t="shared" si="2"/>
-        <v>5.9861204747178008E-5</v>
-      </c>
-      <c r="AB45">
-        <v>2.00651362222358E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X46">
-        <v>45</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="0"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="1"/>
-        <v>2.4686953283720057E-3</v>
-      </c>
-      <c r="AA46" s="8">
-        <f t="shared" si="2"/>
-        <v>7.5626235637501994E-5</v>
-      </c>
-      <c r="AB46">
-        <v>2.6051256696953601E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X47">
-        <v>46</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="0"/>
-        <v>0.359375</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="1"/>
-        <v>3.0384803653209533E-3</v>
-      </c>
-      <c r="AA47" s="8">
-        <f t="shared" si="2"/>
-        <v>9.5008193739800023E-5</v>
-      </c>
-      <c r="AB47">
-        <v>3.36138802607038E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X48">
-        <v>47</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="0"/>
-        <v>0.3671875</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="1"/>
-        <v>3.7215843204987898E-3</v>
-      </c>
-      <c r="AA48" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1871635873851897E-4</v>
-      </c>
-      <c r="AB48">
-        <v>4.3114699634683802E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X49">
-        <v>48</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="1"/>
-        <v>4.536977503448723E-3</v>
-      </c>
-      <c r="AA49" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4757537119639604E-4</v>
-      </c>
-      <c r="AB49">
-        <v>5.49863355085357E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X50">
-        <v>49</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="0"/>
-        <v>0.3828125</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="1"/>
-        <v>5.5062022132457318E-3</v>
-      </c>
-      <c r="AA50" s="8">
-        <f t="shared" si="2"/>
-        <v>1.8253994756607498E-4</v>
-      </c>
-      <c r="AB50">
-        <v>6.9743872628175304E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X51">
-        <v>50</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="0"/>
-        <v>0.390625</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="1"/>
-        <v>6.6536340522234299E-3</v>
-      </c>
-      <c r="AA51" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2471087237472208E-4</v>
-      </c>
-      <c r="AB51">
-        <v>8.7997867384782802E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X52">
-        <v>51</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="0"/>
-        <v>0.3984375</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="1"/>
-        <v>8.0067589005224683E-3</v>
-      </c>
-      <c r="AA52" s="8">
-        <f t="shared" si="2"/>
-        <v>2.7535229739478998E-4</v>
-      </c>
-      <c r="AB52">
-        <v>1.1046895462225501E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X53">
-        <v>52</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="0"/>
-        <v>0.40625</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="1"/>
-        <v>9.5964652212868623E-3</v>
-      </c>
-      <c r="AA53" s="8">
-        <f t="shared" si="2"/>
-        <v>3.3591036581391001E-4</v>
-      </c>
-      <c r="AB53">
-        <v>1.3800418436173401E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X54">
-        <v>53</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="0"/>
-        <v>0.4140625</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="1"/>
-        <v>1.1457351169291724E-2</v>
-      </c>
-      <c r="AA54" s="8">
-        <f t="shared" si="2"/>
-        <v>4.0803316538013984E-4</v>
-      </c>
-      <c r="AB54">
-        <v>1.7159522094312501E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X55">
-        <v>54</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="0"/>
-        <v>0.421875</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="1"/>
-        <v>1.3628045756099244E-2</v>
-      </c>
-      <c r="AA55" s="8">
-        <f t="shared" si="2"/>
-        <v>4.9359199802007005E-4</v>
-      </c>
-      <c r="AB55">
-        <v>2.1239853748113899E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X56">
-        <v>55</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="0"/>
-        <v>0.4296875</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="1"/>
-        <v>1.6151543081166592E-2</v>
-      </c>
-      <c r="AA56" s="8">
-        <f t="shared" si="2"/>
-        <v>5.9470393429117982E-4</v>
-      </c>
-      <c r="AB56">
-        <v>2.61757737283146E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X57">
-        <v>56</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="1"/>
-        <v>1.9075548369301049E-2</v>
-      </c>
-      <c r="AA57" s="8">
-        <f t="shared" si="2"/>
-        <v>7.1375559901688031E-4</v>
-      </c>
-      <c r="AB57">
-        <v>3.2122813071226398E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X58">
-        <v>57</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="0"/>
-        <v>0.4453125</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="1"/>
-        <v>2.2452834259065281E-2</v>
-      </c>
-      <c r="AA58" s="8">
-        <f t="shared" si="2"/>
-        <v>8.5342810932942988E-4</v>
-      </c>
-      <c r="AB58">
-        <v>3.9260369061395201E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X59">
-        <v>58</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="0"/>
-        <v>0.453125</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="1"/>
-        <v>2.6341605462736638E-2</v>
-      </c>
-      <c r="AA59" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0167230578801301E-3</v>
-      </c>
-      <c r="AB59">
-        <v>4.77946501546895E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X60">
-        <v>59</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="0"/>
-        <v>0.4609375</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="1"/>
-        <v>3.0805869564742697E-2</v>
-      </c>
-      <c r="AA60" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2069894019226396E-3</v>
-      </c>
-      <c r="AB60">
-        <v>5.7961880733490801E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X61">
-        <v>60</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="0"/>
-        <v>0.46875</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="1"/>
-        <v>3.5915811340617151E-2</v>
-      </c>
-      <c r="AA61" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4279510830881E-3</v>
-      </c>
-      <c r="AB61">
-        <v>7.0031774752717197E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X62">
-        <v>61</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="0"/>
-        <v>0.4765625</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="1"/>
-        <v>4.1748167560901925E-2</v>
-      </c>
-      <c r="AA62" s="8">
-        <f t="shared" si="2"/>
-        <v>1.6837351627015801E-3</v>
-      </c>
-      <c r="AB62">
-        <v>8.4311285583598197E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X63">
-        <v>62</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="0"/>
-        <v>0.484375</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="1"/>
-        <v>4.8386598792477267E-2</v>
-      </c>
-      <c r="AA63" s="8">
-        <f t="shared" si="2"/>
-        <v>1.9789002131837003E-3</v>
-      </c>
-      <c r="AB63">
-        <v>1.01148637210614E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X64">
-        <v>63</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="0"/>
-        <v>0.4921875</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="1"/>
-        <v>5.5922054221918135E-2</v>
-      </c>
-      <c r="AA64" s="8">
-        <f t="shared" si="2"/>
-        <v>2.3184646571904003E-3</v>
-      </c>
-      <c r="AB64">
-        <v>1.20937639342451E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X65">
-        <v>64</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="1"/>
-        <v>6.4453124999999986E-2</v>
-      </c>
-      <c r="AA65" s="8">
-        <f t="shared" si="2"/>
-        <v>2.7079346924218997E-3</v>
-      </c>
-      <c r="AB65">
-        <v>1.44122285914355E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X66">
-        <v>65</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="0"/>
-        <v>0.5078125</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="1"/>
-        <v>7.4086381041723395E-2</v>
-      </c>
-      <c r="AA66" s="8">
-        <f t="shared" si="2"/>
-        <v>3.1533313812311982E-3</v>
-      </c>
-      <c r="AB66">
-        <v>1.71201632838574E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X67">
-        <v>66</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" ref="Y67:Y129" si="3">X67/COUNT($X$2:$X$129)</f>
-        <v>0.515625</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" ref="Z67:Z129" si="4">_xlfn.BETA.DIST(Y67,10+1,1+1,0)</f>
-        <v>8.493668561047335E-2</v>
-      </c>
-      <c r="AA67" s="8">
-        <f t="shared" ref="AA67:AA128" si="5">AB68-AB67</f>
-        <v>3.6612164200640028E-3</v>
-      </c>
-      <c r="AB67">
-        <v>2.0273494665088598E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X68">
-        <v>67</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="3"/>
-        <v>0.5234375</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" si="4"/>
-        <v>9.7127481366421922E-2</v>
-      </c>
-      <c r="AA68" s="8">
-        <f t="shared" si="5"/>
-        <v>4.2387160341355E-3</v>
-      </c>
-      <c r="AB68">
-        <v>2.3934711085152601E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X69">
-        <v>68</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="3"/>
-        <v>0.53125</v>
-      </c>
-      <c r="Z69">
-        <f t="shared" si="4"/>
-        <v>0.1107910408662266</v>
-      </c>
-      <c r="AA69" s="8">
-        <f t="shared" si="5"/>
-        <v>4.8935423674139958E-3</v>
-      </c>
-      <c r="AB69">
-        <v>2.8173427119288101E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X70">
-        <v>69</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="3"/>
-        <v>0.5390625</v>
-      </c>
-      <c r="Z70">
-        <f t="shared" si="4"/>
-        <v>0.12606867376165176</v>
-      </c>
-      <c r="AA70" s="8">
-        <f t="shared" si="5"/>
-        <v>5.6340116567601059E-3</v>
-      </c>
-      <c r="AB70">
-        <v>3.3066969486702097E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X71">
-        <v>70</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" si="3"/>
-        <v>0.546875</v>
-      </c>
-      <c r="Z71">
-        <f t="shared" si="4"/>
-        <v>0.14311088215707932</v>
-      </c>
-      <c r="AA71" s="8">
-        <f t="shared" si="5"/>
-        <v>6.4690583918338984E-3</v>
-      </c>
-      <c r="AB71">
-        <v>3.8700981143462203E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X72">
-        <v>71</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="3"/>
-        <v>0.5546875</v>
-      </c>
-      <c r="Z72">
-        <f t="shared" si="4"/>
-        <v>0.16207745474808938</v>
-      </c>
-      <c r="AA72" s="8">
-        <f t="shared" si="5"/>
-        <v>7.408244569047602E-3</v>
-      </c>
-      <c r="AB72">
-        <v>4.5170039535296101E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X73">
-        <v>72</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="3"/>
-        <v>0.5625</v>
-      </c>
-      <c r="Z73">
-        <f t="shared" si="4"/>
-        <v>0.18313748947343808</v>
-      </c>
-      <c r="AA73" s="8">
-        <f t="shared" si="5"/>
-        <v>8.4617630483704992E-3</v>
-      </c>
-      <c r="AB73">
-        <v>5.2578284104343703E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X74">
-        <v>73</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="3"/>
-        <v>0.5703125</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="4"/>
-        <v>0.2064693334689055</v>
-      </c>
-      <c r="AA74" s="8">
-        <f t="shared" si="5"/>
-        <v>9.6404339162491914E-3</v>
-      </c>
-      <c r="AB74">
-        <v>6.1040047152714202E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X75">
-        <v>74</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="3"/>
-        <v>0.578125</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" si="4"/>
-        <v>0.23226042811156783</v>
-      </c>
-      <c r="AA75" s="8">
-        <f t="shared" si="5"/>
-        <v>1.0955692646389403E-2</v>
-      </c>
-      <c r="AB75">
-        <v>7.0680481068963394E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X76">
-        <v>75</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="3"/>
-        <v>0.5859375</v>
-      </c>
-      <c r="Z76">
-        <f t="shared" si="4"/>
-        <v>0.26070704588511917</v>
-      </c>
-      <c r="AA76" s="8">
-        <f t="shared" si="5"/>
-        <v>1.2419568732938896E-2</v>
-      </c>
-      <c r="AB76">
-        <v>8.1636173715352797E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X77">
-        <v>76</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="3"/>
-        <v>0.59375</v>
-      </c>
-      <c r="Z77">
-        <f t="shared" si="4"/>
-        <v>0.29201390467877048</v>
-      </c>
-      <c r="AA77" s="8">
-        <f t="shared" si="5"/>
-        <v>1.4044653348069314E-2</v>
-      </c>
-      <c r="AB77">
-        <v>9.4055742448291693E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X78">
-        <v>77</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="3"/>
-        <v>0.6015625</v>
-      </c>
-      <c r="Z78">
-        <f t="shared" si="4"/>
-        <v>0.32639364395193826</v>
-      </c>
-      <c r="AA78" s="8">
-        <f t="shared" si="5"/>
-        <v>1.5844054448631989E-2</v>
-      </c>
-      <c r="AB78">
-        <v>0.10810039579636101</v>
-      </c>
-    </row>
-    <row r="79" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X79">
-        <v>78</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="3"/>
-        <v>0.609375</v>
-      </c>
-      <c r="Z79">
-        <f t="shared" si="4"/>
-        <v>0.36406614595225695</v>
-      </c>
-      <c r="AA79" s="8">
-        <f t="shared" si="5"/>
-        <v>1.783133762521201E-2</v>
-      </c>
-      <c r="AB79">
-        <v>0.123944450244993</v>
-      </c>
-    </row>
-    <row r="80" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X80">
-        <v>79</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="3"/>
-        <v>0.6171875</v>
-      </c>
-      <c r="Z80">
-        <f t="shared" si="4"/>
-        <v>0.40525768386319866</v>
-      </c>
-      <c r="AA80" s="8">
-        <f t="shared" si="5"/>
-        <v>2.002045085259499E-2</v>
-      </c>
-      <c r="AB80">
-        <v>0.14177578787020501</v>
-      </c>
-    </row>
-    <row r="81" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X81">
-        <v>80</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="3"/>
-        <v>0.625</v>
-      </c>
-      <c r="Z81">
-        <f t="shared" si="4"/>
-        <v>0.45019987737759931</v>
-      </c>
-      <c r="AA81" s="8">
-        <f t="shared" si="5"/>
-        <v>2.2425631164537996E-2</v>
-      </c>
-      <c r="AB81">
-        <v>0.1617962387228</v>
-      </c>
-    </row>
-    <row r="82" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X82">
-        <v>81</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="3"/>
-        <v>0.6328125</v>
-      </c>
-      <c r="Z82">
-        <f t="shared" si="4"/>
-        <v>0.49912843474239238</v>
-      </c>
-      <c r="AA82" s="8">
-        <f t="shared" si="5"/>
-        <v>2.5061291139791997E-2</v>
-      </c>
-      <c r="AB82">
-        <v>0.18422186988733799</v>
-      </c>
-    </row>
-    <row r="83" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X83">
-        <v>82</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="3"/>
-        <v>0.640625</v>
-      </c>
-      <c r="Z83">
-        <f t="shared" si="4"/>
-        <v>0.55228165879557034</v>
-      </c>
-      <c r="AA83" s="8">
-        <f t="shared" si="5"/>
-        <v>2.7941882952393998E-2</v>
-      </c>
-      <c r="AB83">
-        <v>0.20928316102712999</v>
-      </c>
-    </row>
-    <row r="84" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X84">
-        <v>83</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="3"/>
-        <v>0.6484375</v>
-      </c>
-      <c r="Z84">
-        <f t="shared" si="4"/>
-        <v>0.60989869291654253</v>
-      </c>
-      <c r="AA84" s="8">
-        <f t="shared" si="5"/>
-        <v>3.1081737610308025E-2</v>
-      </c>
-      <c r="AB84">
-        <v>0.23722504397952399</v>
-      </c>
-    </row>
-    <row r="85" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X85">
-        <v>84</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="3"/>
-        <v>0.65625</v>
-      </c>
-      <c r="Z85">
-        <f t="shared" si="4"/>
-        <v>0.67221748113321511</v>
-      </c>
-      <c r="AA85" s="8">
-        <f t="shared" si="5"/>
-        <v>3.4494876885908965E-2</v>
-      </c>
-      <c r="AB85">
-        <v>0.26830678158983201</v>
-      </c>
-    </row>
-    <row r="86" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X86">
-        <v>85</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="3"/>
-        <v>0.6640625</v>
-      </c>
-      <c r="Z86">
-        <f t="shared" si="4"/>
-        <v>0.73947241487101689</v>
-      </c>
-      <c r="AA86" s="8">
-        <f t="shared" si="5"/>
-        <v>3.8194795333795051E-2</v>
-      </c>
-      <c r="AB86">
-        <v>0.30280165847574098</v>
-      </c>
-    </row>
-    <row r="87" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X87">
-        <v>86</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="3"/>
-        <v>0.671875</v>
-      </c>
-      <c r="Z87">
-        <f t="shared" si="4"/>
-        <v>0.81189163698817657</v>
-      </c>
-      <c r="AA87" s="8">
-        <f t="shared" si="5"/>
-        <v>4.2194209701402974E-2</v>
-      </c>
-      <c r="AB87">
-        <v>0.34099645380953603</v>
-      </c>
-    </row>
-    <row r="88" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X88">
-        <v>87</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="3"/>
-        <v>0.6796875</v>
-      </c>
-      <c r="Z88">
-        <f t="shared" si="4"/>
-        <v>0.88969397181549326</v>
-      </c>
-      <c r="AA88" s="8">
-        <f t="shared" si="5"/>
-        <v>4.6504772972569997E-2</v>
-      </c>
-      <c r="AB88">
-        <v>0.383190663510939</v>
-      </c>
-    </row>
-    <row r="89" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X89">
-        <v>88</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="3"/>
-        <v>0.6875</v>
-      </c>
-      <c r="Z89">
-        <f t="shared" si="4"/>
-        <v>0.973085447905078</v>
-      </c>
-      <c r="AA89" s="8">
-        <f t="shared" si="5"/>
-        <v>5.1136750251578988E-2</v>
-      </c>
-      <c r="AB89">
-        <v>0.429695436483509</v>
-      </c>
-    </row>
-    <row r="90" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X90">
-        <v>89</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="3"/>
-        <v>0.6953125</v>
-      </c>
-      <c r="Z90">
-        <f t="shared" si="4"/>
-        <v>1.0622553780885324</v>
-      </c>
-      <c r="AA90" s="8">
-        <f t="shared" si="5"/>
-        <v>5.6098653705856982E-2</v>
-      </c>
-      <c r="AB90">
-        <v>0.48083218673508799</v>
-      </c>
-    </row>
-    <row r="91" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X91">
-        <v>90</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="3"/>
-        <v>0.703125</v>
-      </c>
-      <c r="Z91">
-        <f t="shared" si="4"/>
-        <v>1.1573719592483334</v>
-      </c>
-      <c r="AA91" s="8">
-        <f t="shared" si="5"/>
-        <v>6.1396833851667054E-2</v>
-      </c>
-      <c r="AB91">
-        <v>0.53693084044094497</v>
-      </c>
-    </row>
-    <row r="92" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X92">
-        <v>91</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="3"/>
-        <v>0.7109375</v>
-      </c>
-      <c r="Z92">
-        <f t="shared" si="4"/>
-        <v>1.2585773519140222</v>
-      </c>
-      <c r="AA92" s="8">
-        <f t="shared" si="5"/>
-        <v>6.7035024604850002E-2</v>
-      </c>
-      <c r="AB92">
-        <v>0.59832767429261202</v>
-      </c>
-    </row>
-    <row r="93" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X93">
-        <v>92</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="3"/>
-        <v>0.71875</v>
-      </c>
-      <c r="Z93">
-        <f t="shared" si="4"/>
-        <v>1.3659821974047746</v>
-      </c>
-      <c r="AA93" s="8">
-        <f t="shared" si="5"/>
-        <v>7.3013839747100961E-2</v>
-      </c>
-      <c r="AB93">
-        <v>0.66536269889746202</v>
-      </c>
-    </row>
-    <row r="94" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X94">
-        <v>93</v>
-      </c>
-      <c r="Y94">
-        <f t="shared" si="3"/>
-        <v>0.7265625</v>
-      </c>
-      <c r="Z94">
-        <f t="shared" si="4"/>
-        <v>1.4796595277490938</v>
-      </c>
-      <c r="AA94" s="8">
-        <f t="shared" si="5"/>
-        <v>7.933021880172697E-2</v>
-      </c>
-      <c r="AB94">
-        <v>0.73837653864456299</v>
-      </c>
-    </row>
-    <row r="95" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X95">
-        <v>94</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="3"/>
-        <v>0.734375</v>
-      </c>
-      <c r="Z95">
-        <f t="shared" si="4"/>
-        <v>1.5996380210183463</v>
-      </c>
-      <c r="AA95" s="8">
-        <f t="shared" si="5"/>
-        <v>8.5976820801010989E-2</v>
-      </c>
-      <c r="AB95">
-        <v>0.81770675744628996</v>
-      </c>
-    </row>
-    <row r="96" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X96">
-        <v>95</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="3"/>
-        <v>0.7421875</v>
-      </c>
-      <c r="Z96">
-        <f t="shared" si="4"/>
-        <v>1.7258945520106539</v>
-      </c>
-      <c r="AA96" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2941365097806039E-2</v>
-      </c>
-      <c r="AB96">
-        <v>0.90368357824730094</v>
-      </c>
-    </row>
-    <row r="97" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X97">
-        <v>96</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="Z97">
-        <f t="shared" si="4"/>
-        <v>1.8583459854125977</v>
-      </c>
-      <c r="AA97" s="8">
-        <f t="shared" si="5"/>
-        <v>0.10020591927279299</v>
-      </c>
-      <c r="AB97">
-        <v>0.99662494334510698</v>
-      </c>
-    </row>
-    <row r="98" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X98">
-        <v>97</v>
-      </c>
-      <c r="Y98">
-        <f t="shared" si="3"/>
-        <v>0.7578125</v>
-      </c>
-      <c r="Z98">
-        <f t="shared" si="4"/>
-        <v>1.9968401556455804</v>
-      </c>
-      <c r="AA98" s="8">
-        <f t="shared" si="5"/>
-        <v>0.10774613537427014</v>
-      </c>
-      <c r="AB98">
-        <v>1.0968308626179</v>
-      </c>
-    </row>
-    <row r="99" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X99">
-        <v>98</v>
-      </c>
-      <c r="Y99">
-        <f t="shared" si="3"/>
-        <v>0.765625</v>
-      </c>
-      <c r="Z99">
-        <f t="shared" si="4"/>
-        <v>2.1411459745684671</v>
-      </c>
-      <c r="AA99" s="8">
-        <f t="shared" si="5"/>
-        <v>0.11553043727136991</v>
-      </c>
-      <c r="AB99">
-        <v>1.2045769979921701</v>
-      </c>
-    </row>
-    <row r="100" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X100">
-        <v>99</v>
-      </c>
-      <c r="Y100">
-        <f t="shared" si="3"/>
-        <v>0.7734375</v>
-      </c>
-      <c r="Z100">
-        <f t="shared" si="4"/>
-        <v>2.2909426050556396</v>
-      </c>
-      <c r="AA100" s="8">
-        <f t="shared" si="5"/>
-        <v>0.12351916389577999</v>
-      </c>
-      <c r="AB100">
-        <v>1.32010743526354</v>
-      </c>
-    </row>
-    <row r="101" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X101">
-        <v>100</v>
-      </c>
-      <c r="Y101">
-        <f t="shared" si="3"/>
-        <v>0.78125</v>
-      </c>
-      <c r="Z101">
-        <f t="shared" si="4"/>
-        <v>2.4458076351967919</v>
-      </c>
-      <c r="AA101" s="8">
-        <f t="shared" si="5"/>
-        <v>0.13166367570455995</v>
-      </c>
-      <c r="AB101">
-        <v>1.44362659915932</v>
-      </c>
-    </row>
-    <row r="102" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X102">
-        <v>101</v>
-      </c>
-      <c r="Y102">
-        <f t="shared" si="3"/>
-        <v>0.7890625</v>
-      </c>
-      <c r="Z102">
-        <f t="shared" si="4"/>
-        <v>2.6052041844688172</v>
-      </c>
-      <c r="AA102" s="8">
-        <f t="shared" si="5"/>
-        <v>0.13990543496190999</v>
-      </c>
-      <c r="AB102">
-        <v>1.57529027486388</v>
-      </c>
-    </row>
-    <row r="103" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X103">
-        <v>102</v>
-      </c>
-      <c r="Y103">
-        <f t="shared" si="3"/>
-        <v>0.796875</v>
-      </c>
-      <c r="Z103">
-        <f t="shared" si="4"/>
-        <v>2.7684668697079298</v>
-      </c>
-      <c r="AA103" s="8">
-        <f t="shared" si="5"/>
-        <v>0.14817507459234003</v>
-      </c>
-      <c r="AB103">
-        <v>1.7151957098257899</v>
-      </c>
-    </row>
-    <row r="104" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X104">
-        <v>103</v>
-      </c>
-      <c r="Y104">
-        <f t="shared" si="3"/>
-        <v>0.8046875</v>
-      </c>
-      <c r="Z104">
-        <f t="shared" si="4"/>
-        <v>2.9347865550588228</v>
-      </c>
-      <c r="AA104" s="8">
-        <f t="shared" si="5"/>
-        <v>0.65187267867248022</v>
-      </c>
-      <c r="AB104">
-        <v>1.86337078441813</v>
-      </c>
-    </row>
-    <row r="105" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X105">
-        <v>104</v>
-      </c>
-      <c r="Y105">
-        <f t="shared" si="3"/>
-        <v>0.8125</v>
-      </c>
-      <c r="Z105">
-        <f t="shared" si="4"/>
-        <v>3.1031938062940299</v>
-      </c>
-      <c r="AA105" s="8">
-        <f t="shared" si="5"/>
-        <v>0.64880016236771976</v>
-      </c>
-      <c r="AB105">
-        <v>2.5152434630906102</v>
-      </c>
-    </row>
-    <row r="106" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X106">
-        <v>105</v>
-      </c>
-      <c r="Y106">
-        <f t="shared" si="3"/>
-        <v>0.8203125</v>
-      </c>
-      <c r="Z106">
-        <f t="shared" si="4"/>
-        <v>3.2725409659777074</v>
-      </c>
-      <c r="AA106" s="8">
-        <f t="shared" si="5"/>
-        <v>0.64732804598060012</v>
-      </c>
-      <c r="AB106">
-        <v>3.16404362545833</v>
-      </c>
-    </row>
-    <row r="107" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X107">
-        <v>106</v>
-      </c>
-      <c r="Y107">
-        <f t="shared" si="3"/>
-        <v>0.828125</v>
-      </c>
-      <c r="Z107">
-        <f t="shared" si="4"/>
-        <v>3.4414827618907209</v>
-      </c>
-      <c r="AA107" s="8">
-        <f t="shared" si="5"/>
-        <v>0.64757587804198957</v>
-      </c>
-      <c r="AB107">
-        <v>3.8113716714389301</v>
-      </c>
-    </row>
-    <row r="108" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X108">
-        <v>107</v>
-      </c>
-      <c r="Y108">
-        <f t="shared" si="3"/>
-        <v>0.8359375</v>
-      </c>
-      <c r="Z108">
-        <f t="shared" si="4"/>
-        <v>3.6084553569349138</v>
-      </c>
-      <c r="AA108" s="8">
-        <f t="shared" si="5"/>
-        <v>0.64965403378319042</v>
-      </c>
-      <c r="AB108">
-        <v>4.4589475494809196</v>
-      </c>
-    </row>
-    <row r="109" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X109">
-        <v>108</v>
-      </c>
-      <c r="Y109">
-        <f t="shared" si="3"/>
-        <v>0.84375</v>
-      </c>
-      <c r="Z109">
-        <f t="shared" si="4"/>
-        <v>3.7716537443907119</v>
-      </c>
-      <c r="AA109" s="8">
-        <f t="shared" si="5"/>
-        <v>0.65366092058213976</v>
-      </c>
-      <c r="AB109">
-        <v>5.1086015832641101</v>
-      </c>
-    </row>
-    <row r="110" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X110">
-        <v>109</v>
-      </c>
-      <c r="Y110">
-        <f t="shared" si="3"/>
-        <v>0.8515625</v>
-      </c>
-      <c r="Z110">
-        <f t="shared" si="4"/>
-        <v>3.9290073879104916</v>
-      </c>
-      <c r="AA110" s="8">
-        <f t="shared" si="5"/>
-        <v>0.65967988542060052</v>
-      </c>
-      <c r="AB110">
-        <v>5.7622625038462498</v>
-      </c>
-    </row>
-    <row r="111" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X111">
-        <v>110</v>
-      </c>
-      <c r="Y111">
-        <f t="shared" si="3"/>
-        <v>0.859375</v>
-      </c>
-      <c r="Z111">
-        <f t="shared" si="4"/>
-        <v>4.0781540009871584</v>
-      </c>
-      <c r="AA111" s="8">
-        <f t="shared" si="5"/>
-        <v>0.66777577663676002</v>
-      </c>
-      <c r="AB111">
-        <v>6.4219423892668503</v>
-      </c>
-    </row>
-    <row r="112" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X112">
-        <v>111</v>
-      </c>
-      <c r="Y112">
-        <f t="shared" si="3"/>
-        <v>0.8671875</v>
-      </c>
-      <c r="Z112">
-        <f t="shared" si="4"/>
-        <v>4.2164113558398304</v>
-      </c>
-      <c r="AA112" s="8">
-        <f t="shared" si="5"/>
-        <v>0.67799120756766929</v>
-      </c>
-      <c r="AB112">
-        <v>7.0897181659036104</v>
-      </c>
-    </row>
-    <row r="113" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X113">
-        <v>112</v>
-      </c>
-      <c r="Y113">
-        <f t="shared" si="3"/>
-        <v>0.875</v>
-      </c>
-      <c r="Z113">
-        <f t="shared" si="4"/>
-        <v>4.3407470067031682</v>
-      </c>
-      <c r="AA113" s="8">
-        <f t="shared" si="5"/>
-        <v>0.69034239566263</v>
-      </c>
-      <c r="AB113">
-        <v>7.7677093734712797</v>
-      </c>
-    </row>
-    <row r="114" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X114">
-        <v>113</v>
-      </c>
-      <c r="Y114">
-        <f t="shared" si="3"/>
-        <v>0.8828125</v>
-      </c>
-      <c r="Z114">
-        <f t="shared" si="4"/>
-        <v>4.4477458073902598</v>
-      </c>
-      <c r="AA114" s="8">
-        <f t="shared" si="5"/>
-        <v>0.70481463415419121</v>
-      </c>
-      <c r="AB114">
-        <v>8.4580517691339097</v>
-      </c>
-    </row>
-    <row r="115" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X115">
-        <v>114</v>
-      </c>
-      <c r="Y115">
-        <f t="shared" si="3"/>
-        <v>0.890625</v>
-      </c>
-      <c r="Z115">
-        <f t="shared" si="4"/>
-        <v>4.5335750977177369</v>
-      </c>
-      <c r="AA115" s="8">
-        <f t="shared" si="5"/>
-        <v>0.72135733155974968</v>
-      </c>
-      <c r="AB115">
-        <v>9.1628664032881009</v>
-      </c>
-    </row>
-    <row r="116" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X116">
-        <v>115</v>
-      </c>
-      <c r="Y116">
-        <f t="shared" si="3"/>
-        <v>0.8984375</v>
-      </c>
-      <c r="Z116">
-        <f t="shared" si="4"/>
-        <v>4.5939474279325037</v>
-      </c>
-      <c r="AA116" s="8">
-        <f t="shared" si="5"/>
-        <v>0.73987859596914873</v>
-      </c>
-      <c r="AB116">
-        <v>9.8842237348478506</v>
-      </c>
-    </row>
-    <row r="117" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X117">
-        <v>116</v>
-      </c>
-      <c r="Y117">
-        <f t="shared" si="3"/>
-        <v>0.90625</v>
-      </c>
-      <c r="Z117">
-        <f t="shared" si="4"/>
-        <v>4.6240806846586819</v>
-      </c>
-      <c r="AA117" s="8">
-        <f t="shared" si="5"/>
-        <v>0.76023933230450069</v>
-      </c>
-      <c r="AB117">
-        <v>10.624102330816999</v>
-      </c>
-    </row>
-    <row r="118" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X118">
-        <v>117</v>
-      </c>
-      <c r="Y118">
-        <f t="shared" si="3"/>
-        <v>0.9140625</v>
-      </c>
-      <c r="Z118">
-        <f t="shared" si="4"/>
-        <v>4.6186554760875582</v>
-      </c>
-      <c r="AA118" s="8">
-        <f t="shared" si="5"/>
-        <v>0.78224681870950086</v>
-      </c>
-      <c r="AB118">
-        <v>11.3843416631215</v>
-      </c>
-    </row>
-    <row r="119" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X119">
-        <v>118</v>
-      </c>
-      <c r="Y119">
-        <f t="shared" si="3"/>
-        <v>0.921875</v>
-      </c>
-      <c r="Z119">
-        <f t="shared" si="4"/>
-        <v>4.5717696281589175</v>
-      </c>
-      <c r="AA119" s="8">
-        <f t="shared" si="5"/>
-        <v>0.80564772611749902</v>
-      </c>
-      <c r="AB119">
-        <v>12.166588481831001</v>
-      </c>
-    </row>
-    <row r="120" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X120">
-        <v>119</v>
-      </c>
-      <c r="Y120">
-        <f t="shared" si="3"/>
-        <v>0.9296875</v>
-      </c>
-      <c r="Z120">
-        <f t="shared" si="4"/>
-        <v>4.4768896373257441</v>
-      </c>
-      <c r="AA120" s="8">
-        <f t="shared" si="5"/>
-        <v>0.83012054284839998</v>
-      </c>
-      <c r="AB120">
-        <v>12.9722362079485</v>
-      </c>
-    </row>
-    <row r="121" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X121">
-        <v>120</v>
-      </c>
-      <c r="Y121">
-        <f t="shared" si="3"/>
-        <v>0.9375</v>
-      </c>
-      <c r="Z121">
-        <f t="shared" si="4"/>
-        <v>4.3267989191519973</v>
-      </c>
-      <c r="AA121" s="8">
-        <f t="shared" si="5"/>
-        <v>0.85526736335379994</v>
-      </c>
-      <c r="AB121">
-        <v>13.8023567507969</v>
-      </c>
-    </row>
-    <row r="122" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X122">
-        <v>121</v>
-      </c>
-      <c r="Y122">
-        <f t="shared" si="3"/>
-        <v>0.9453125</v>
-      </c>
-      <c r="Z122">
-        <f t="shared" si="4"/>
-        <v>4.1135426854616455</v>
-      </c>
-      <c r="AA122" s="8">
-        <f t="shared" si="5"/>
-        <v>0.88060500138180053</v>
-      </c>
-      <c r="AB122">
-        <v>14.6576241141507</v>
-      </c>
-    </row>
-    <row r="123" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X123">
-        <v>122</v>
-      </c>
-      <c r="Y123">
-        <f t="shared" si="3"/>
-        <v>0.953125</v>
-      </c>
-      <c r="Z123">
-        <f t="shared" si="4"/>
-        <v>3.8283692760325612</v>
-      </c>
-      <c r="AA123" s="8">
-        <f t="shared" si="5"/>
-        <v>0.9055553736935007</v>
-      </c>
-      <c r="AB123">
-        <v>15.5382291155325</v>
-      </c>
-    </row>
-    <row r="124" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X124">
-        <v>123</v>
-      </c>
-      <c r="Y124">
-        <f t="shared" si="3"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="Z124">
-        <f t="shared" si="4"/>
-        <v>3.461667763907486</v>
-      </c>
-      <c r="AA124" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92943511981239979</v>
-      </c>
-      <c r="AB124">
-        <v>16.443784489226001</v>
-      </c>
-    </row>
-    <row r="125" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X125">
-        <v>124</v>
-      </c>
-      <c r="Y125">
-        <f t="shared" si="3"/>
-        <v>0.96875</v>
-      </c>
-      <c r="Z125">
-        <f t="shared" si="4"/>
-        <v>3.0029016462725302</v>
-      </c>
-      <c r="AA125" s="8">
-        <f t="shared" si="5"/>
-        <v>0.95144439571580008</v>
-      </c>
-      <c r="AB125">
-        <v>17.373219609038401</v>
-      </c>
-    </row>
-    <row r="126" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X126">
-        <v>125</v>
-      </c>
-      <c r="Y126">
-        <f t="shared" si="3"/>
-        <v>0.9765625</v>
-      </c>
-      <c r="Z126">
-        <f t="shared" si="4"/>
-        <v>2.4405384255275053</v>
-      </c>
-      <c r="AA126" s="8">
-        <f t="shared" si="5"/>
-        <v>0.97065479411719835</v>
-      </c>
-      <c r="AB126">
-        <v>18.324664004754201</v>
-      </c>
-    </row>
-    <row r="127" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X127">
-        <v>126</v>
-      </c>
-      <c r="Y127">
-        <f t="shared" si="3"/>
-        <v>0.984375</v>
-      </c>
-      <c r="Z127">
-        <f t="shared" si="4"/>
-        <v>1.7619748776382822</v>
-      </c>
-      <c r="AA127" s="8">
-        <f t="shared" si="5"/>
-        <v>0.98599633422380251</v>
-      </c>
-      <c r="AB127">
-        <v>19.295318798871399</v>
-      </c>
-    </row>
-    <row r="128" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X128">
-        <v>127</v>
-      </c>
-      <c r="Y128">
-        <f t="shared" si="3"/>
-        <v>0.9921875</v>
-      </c>
-      <c r="Z128">
-        <f t="shared" si="4"/>
-        <v>0.9534577971152427</v>
-      </c>
-      <c r="AA128" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99624346204929992</v>
-      </c>
-      <c r="AB128">
-        <v>20.281315133095202</v>
-      </c>
-    </row>
-    <row r="129" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X129">
-        <v>128</v>
-      </c>
-      <c r="Y129">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z129">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA129" s="8"/>
-      <c r="AB129">
-        <v>21.277558595144502</v>
+      <c r="D101" s="9">
+        <v>0.65900000000000003</v>
       </c>
     </row>
   </sheetData>
